--- a/tables/monthly_tables/nondetrended_svd/pc_timeseries.xlsx
+++ b/tables/monthly_tables/nondetrended_svd/pc_timeseries.xlsx
@@ -410,464 +410,464 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>2.017039735781899</v>
+        <v>1.324898177850868</v>
       </c>
       <c r="B2">
-        <v>-1.949349195763725</v>
+        <v>-1.782653021176927</v>
       </c>
       <c r="C2">
-        <v>-1.936888180313266</v>
+        <v>-1.947989131492283</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>0.3770954057634462</v>
+        <v>0.3601679773303114</v>
       </c>
       <c r="B3">
-        <v>-1.283246077800258</v>
+        <v>-1.270179930569044</v>
       </c>
       <c r="C3">
-        <v>-1.409433552570907</v>
+        <v>-1.568564230331341</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>3.199559550583221</v>
+        <v>2.841530231727853</v>
       </c>
       <c r="B4">
-        <v>1.635862017118279</v>
+        <v>1.633293568105089</v>
       </c>
       <c r="C4">
-        <v>1.337781810182368</v>
+        <v>0.9468117388695081</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>0.4823075899148564</v>
+        <v>0.04450473557554609</v>
       </c>
       <c r="B5">
-        <v>-1.473672716182342</v>
+        <v>-1.320317298022141</v>
       </c>
       <c r="C5">
-        <v>-1.113016400835994</v>
+        <v>-1.203123009358354</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>-0.2722683079868565</v>
+        <v>-0.4603455288798688</v>
       </c>
       <c r="B6">
-        <v>0.8266721678855969</v>
+        <v>0.8312897034847136</v>
       </c>
       <c r="C6">
-        <v>-1.263811889287843</v>
+        <v>-1.220786856506903</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>-0.6013123734739726</v>
+        <v>-0.7464908864582557</v>
       </c>
       <c r="B7">
-        <v>-0.1561459529935069</v>
+        <v>-0.05236501297473908</v>
       </c>
       <c r="C7">
-        <v>-0.53089401073965</v>
+        <v>-0.6554428029457131</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>0.7127283180557109</v>
+        <v>1.502047115752997</v>
       </c>
       <c r="B8">
-        <v>-1.64480293246595</v>
+        <v>-1.871784642812626</v>
       </c>
       <c r="C8">
-        <v>-1.113594261081218</v>
+        <v>-1.34126489787322</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>-0.9552406702607337</v>
+        <v>-0.8066519151474496</v>
       </c>
       <c r="B9">
-        <v>-0.4603697299220864</v>
+        <v>-0.5307539286106571</v>
       </c>
       <c r="C9">
-        <v>-0.3158269582115671</v>
+        <v>-0.3298346207752975</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>-0.008504664313156787</v>
+        <v>0.4017633946442834</v>
       </c>
       <c r="B10">
-        <v>-1.239098122091853</v>
+        <v>-1.416964684785467</v>
       </c>
       <c r="C10">
-        <v>0.2474294005557116</v>
+        <v>0.1762869980153072</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>-0.1604277307635207</v>
+        <v>-0.380755927566893</v>
       </c>
       <c r="B11">
-        <v>0.8500937741524732</v>
+        <v>0.8687887335873566</v>
       </c>
       <c r="C11">
-        <v>-1.380834925260635</v>
+        <v>-1.382470805573292</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>0.7179595222974103</v>
+        <v>0.4922101354788218</v>
       </c>
       <c r="B12">
-        <v>1.731763064933736</v>
+        <v>1.698724273855912</v>
       </c>
       <c r="C12">
-        <v>-1.389221183947206</v>
+        <v>-1.29494415872761</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>-0.6868351435684644</v>
+        <v>-0.7533164564766081</v>
       </c>
       <c r="B13">
-        <v>0.8098553100518699</v>
+        <v>0.8364413612489713</v>
       </c>
       <c r="C13">
-        <v>-1.107829791010171</v>
+        <v>-1.137330012857667</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>-0.9527939687049347</v>
+        <v>-0.7534460804128742</v>
       </c>
       <c r="B14">
-        <v>0.99972391613874</v>
+        <v>0.9661888280230065</v>
       </c>
       <c r="C14">
-        <v>-0.6284046342508152</v>
+        <v>-0.8392043900360526</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>-0.6466738734077386</v>
+        <v>-0.3993505420087325</v>
       </c>
       <c r="B15">
-        <v>0.5129959663361868</v>
+        <v>0.417273026314634</v>
       </c>
       <c r="C15">
-        <v>-0.5639632294390122</v>
+        <v>-0.5954387477261944</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>-0.2188919830412061</v>
+        <v>-0.4432539493372962</v>
       </c>
       <c r="B16">
-        <v>0.7941800307581152</v>
+        <v>0.8377746123596314</v>
       </c>
       <c r="C16">
-        <v>-1.440722669906471</v>
+        <v>-1.409700046534369</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>-0.6618057815438207</v>
+        <v>-0.7482290442658759</v>
       </c>
       <c r="B17">
-        <v>0.3874352508272544</v>
+        <v>0.4425098025608361</v>
       </c>
       <c r="C17">
-        <v>-0.1950508844115011</v>
+        <v>-0.4210622036837017</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>-0.9223656577374378</v>
+        <v>-1.023584406799031</v>
       </c>
       <c r="B18">
-        <v>-0.3885820889422555</v>
+        <v>-0.2543855293441488</v>
       </c>
       <c r="C18">
-        <v>-0.9524398973439503</v>
+        <v>-0.8734467935447333</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>-0.3898438941660956</v>
+        <v>-0.6034412749276037</v>
       </c>
       <c r="B19">
-        <v>-0.5379442692610149</v>
+        <v>-0.3785230273738434</v>
       </c>
       <c r="C19">
-        <v>0.1675430353821347</v>
+        <v>0.07007751758469094</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>-0.9123049798466263</v>
+        <v>-0.6976026525229662</v>
       </c>
       <c r="B20">
-        <v>-1.014598463132558</v>
+        <v>-1.083703572847837</v>
       </c>
       <c r="C20">
-        <v>-0.2034952075423624</v>
+        <v>-0.2645543681028209</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>-0.4938865879182834</v>
+        <v>-0.3455813113510108</v>
       </c>
       <c r="B21">
-        <v>1.066960824409903</v>
+        <v>0.9367077477332256</v>
       </c>
       <c r="C21">
-        <v>-0.9574544538485147</v>
+        <v>-0.8911337602203943</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>-0.1326609742222373</v>
+        <v>-0.2305424319889022</v>
       </c>
       <c r="B22">
-        <v>0.5521134967024336</v>
+        <v>0.6489693489092336</v>
       </c>
       <c r="C22">
-        <v>0.2541550344836256</v>
+        <v>0.2087080113021787</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>0.35414319683282</v>
+        <v>0.007293261202734696</v>
       </c>
       <c r="B23">
-        <v>-0.4189110426162453</v>
+        <v>-0.2885698147320448</v>
       </c>
       <c r="C23">
-        <v>1.20592474364428</v>
+        <v>1.194031188082551</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>-0.09560752653931547</v>
+        <v>-0.3150614086477779</v>
       </c>
       <c r="B24">
-        <v>0.2244060702077822</v>
+        <v>0.3019314524861076</v>
       </c>
       <c r="C24">
-        <v>1.069665949801254</v>
+        <v>0.8578675268259591</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>-1.022431587313648</v>
+        <v>-0.6424538761389441</v>
       </c>
       <c r="B25">
-        <v>-0.02037995492135165</v>
+        <v>-0.2508181938720535</v>
       </c>
       <c r="C25">
-        <v>0.02658213510288605</v>
+        <v>0.1525331380669896</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>0.4294222621704283</v>
+        <v>0.6496266644595733</v>
       </c>
       <c r="B26">
-        <v>-0.4699566862136315</v>
+        <v>-0.5961628688954547</v>
       </c>
       <c r="C26">
-        <v>1.413813720704773</v>
+        <v>1.490461848306993</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>-0.9717591857456279</v>
+        <v>-0.5646690135309829</v>
       </c>
       <c r="B27">
-        <v>-0.4538998619245224</v>
+        <v>-0.4646925952654177</v>
       </c>
       <c r="C27">
-        <v>0.8381921995112255</v>
+        <v>1.19821039980783</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>-0.3258633568677778</v>
+        <v>-0.5206905185377126</v>
       </c>
       <c r="B28">
-        <v>0.7841176176784336</v>
+        <v>0.7443132209404206</v>
       </c>
       <c r="C28">
-        <v>0.7724049355938647</v>
+        <v>0.6749482314420778</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>1.703313927276881</v>
+        <v>1.21609879139067</v>
       </c>
       <c r="B29">
-        <v>-0.4291382639018915</v>
+        <v>-0.3002445598487704</v>
       </c>
       <c r="C29">
-        <v>-0.4348498744590631</v>
+        <v>-0.1682624719635707</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>0.3628273212423386</v>
+        <v>0.1540887215321812</v>
       </c>
       <c r="B30">
-        <v>1.103911025787672</v>
+        <v>1.046058224384633</v>
       </c>
       <c r="C30">
-        <v>0.4154643304330178</v>
+        <v>0.2467481980625884</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>2.641857385931926</v>
+        <v>3.765158085409408</v>
       </c>
       <c r="B31">
-        <v>1.864577163945963</v>
+        <v>1.984440251399633</v>
       </c>
       <c r="C31">
-        <v>-0.8793842192114985</v>
+        <v>-0.4339363535891555</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>-1.488070675643622</v>
+        <v>-1.074508461178172</v>
       </c>
       <c r="B32">
-        <v>-0.6768374506025785</v>
+        <v>-0.8489256561500708</v>
       </c>
       <c r="C32">
-        <v>0.3516524635362009</v>
+        <v>0.5382179246088187</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>0.1580436058444879</v>
+        <v>-0.2014803919328434</v>
       </c>
       <c r="B33">
-        <v>-1.549228213091911</v>
+        <v>-1.385457693696096</v>
       </c>
       <c r="C33">
-        <v>1.383347935891893</v>
+        <v>1.271595288313393</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>0.1821458927814155</v>
+        <v>-0.2020641347134943</v>
       </c>
       <c r="B34">
-        <v>-0.4360770044741901</v>
+        <v>-0.3104360832000476</v>
       </c>
       <c r="C34">
-        <v>1.630384111117548</v>
+        <v>1.579546621863221</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>-0.1124268278362216</v>
+        <v>-0.3267441391142422</v>
       </c>
       <c r="B35">
-        <v>0.5243907383425387</v>
+        <v>0.5500077145856992</v>
       </c>
       <c r="C35">
-        <v>-0.122531014783856</v>
+        <v>0.03333065452044511</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>-0.7136027925459927</v>
+        <v>-0.2166322071896001</v>
       </c>
       <c r="B36">
-        <v>-1.147822914494789</v>
+        <v>-1.238569119107025</v>
       </c>
       <c r="C36">
-        <v>0.8848789492121514</v>
+        <v>0.9637142403135639</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>-1.083286482729899</v>
+        <v>-0.7203169360500276</v>
       </c>
       <c r="B37">
-        <v>0.05757065092245227</v>
+        <v>-0.1859996792000005</v>
       </c>
       <c r="C37">
-        <v>0.0835263930208357</v>
+        <v>0.05693899688541719</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>-0.8338007556764767</v>
+        <v>-0.4386856441722443</v>
       </c>
       <c r="B38">
-        <v>-0.01343853110655584</v>
+        <v>-0.2949977061120582</v>
       </c>
       <c r="C38">
-        <v>0.9549709392661687</v>
+        <v>1.062028197739368</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>-0.5279056129601448</v>
+        <v>-0.785359364049326</v>
       </c>
       <c r="B39">
-        <v>-0.3862562822452517</v>
+        <v>-0.232656876660387</v>
       </c>
       <c r="C39">
-        <v>1.536805567176603</v>
+        <v>1.56156172629001</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>0.210166966378007</v>
+        <v>-0.2041567035277827</v>
       </c>
       <c r="B40">
-        <v>-1.116863699191736</v>
+        <v>-0.9689236139332756</v>
       </c>
       <c r="C40">
-        <v>0.346963263731768</v>
+        <v>0.5489860459066861</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>0.07981478174317914</v>
+        <v>-0.09244398242210183</v>
       </c>
       <c r="B41">
-        <v>0.52441731704256</v>
+        <v>0.6477206421466152</v>
       </c>
       <c r="C41">
-        <v>1.510653614565432</v>
+        <v>1.468741649277303</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>-0.1941817766805906</v>
+        <v>0.009551436433797184</v>
       </c>
       <c r="B42">
-        <v>-0.1576508290024991</v>
+        <v>-0.2193956620982238</v>
       </c>
       <c r="C42">
-        <v>0.137447966912717</v>
+        <v>0.3800369913973574</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>1.756327708896244</v>
+        <v>1.928920460559655</v>
       </c>
       <c r="B43">
-        <v>2.173223879100714</v>
+        <v>2.155048259162637</v>
       </c>
       <c r="C43">
-        <v>1.370058738629039</v>
+        <v>1.297106528360417</v>
       </c>
     </row>
   </sheetData>
@@ -896,464 +896,464 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>1.658159242885727</v>
+        <v>1.372839953416065</v>
       </c>
       <c r="B2">
-        <v>-1.117260009630958</v>
+        <v>-1.199509044875617</v>
       </c>
       <c r="C2">
-        <v>0.542824823985941</v>
+        <v>0.7774852709634131</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>1.944493570722664</v>
+        <v>1.610218891291404</v>
       </c>
       <c r="B3">
-        <v>-1.086683026200137</v>
+        <v>-1.018106301531477</v>
       </c>
       <c r="C3">
-        <v>0.2849705539739387</v>
+        <v>1.388205616071623</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>-0.08444127754228718</v>
+        <v>-0.2014861031510731</v>
       </c>
       <c r="B4">
-        <v>-1.030825532649791</v>
+        <v>-0.821834501960523</v>
       </c>
       <c r="C4">
-        <v>-0.5507155180899237</v>
+        <v>-0.3895418228854647</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>1.026732351350355</v>
+        <v>0.5734394932611476</v>
       </c>
       <c r="B5">
-        <v>-0.3673544413694953</v>
+        <v>-0.4284081998322838</v>
       </c>
       <c r="C5">
-        <v>0.8428667569453535</v>
+        <v>-1.693501286597623</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>0.9399782819508271</v>
+        <v>0.556634783465962</v>
       </c>
       <c r="B6">
-        <v>-1.309454723160021</v>
+        <v>-1.369903365294144</v>
       </c>
       <c r="C6">
-        <v>-1.579441694815469</v>
+        <v>0.4845197360263246</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>-0.4942657293192224</v>
+        <v>-0.626146613809896</v>
       </c>
       <c r="B7">
-        <v>-0.5709859998818211</v>
+        <v>-0.6838370511368255</v>
       </c>
       <c r="C7">
-        <v>-0.8694472737415377</v>
+        <v>0.8967118512922381</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>-1.045352496092475</v>
+        <v>-0.8588637199578016</v>
       </c>
       <c r="B8">
-        <v>-0.2847341303978424</v>
+        <v>-0.09779444312574957</v>
       </c>
       <c r="C8">
-        <v>-0.435785070497533</v>
+        <v>-0.9508721849104582</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>-0.4180229937104105</v>
+        <v>-0.03217993337977374</v>
       </c>
       <c r="B9">
-        <v>-1.2212871133988</v>
+        <v>-1.056649166115336</v>
       </c>
       <c r="C9">
-        <v>0.7528247087105987</v>
+        <v>-1.293645596409737</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>0.7391131573022403</v>
+        <v>0.6012736966791584</v>
       </c>
       <c r="B10">
-        <v>-1.637739904229838</v>
+        <v>-1.59174314542244</v>
       </c>
       <c r="C10">
-        <v>-0.2243572370765077</v>
+        <v>0.1947537632260719</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>0.4215665435941194</v>
+        <v>0.4132841597554627</v>
       </c>
       <c r="B11">
-        <v>-1.421291335906164</v>
+        <v>-1.366133060672789</v>
       </c>
       <c r="C11">
-        <v>0.9682800089625871</v>
+        <v>-0.1086486612677333</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>-1.801077036530432</v>
+        <v>-1.778854419188483</v>
       </c>
       <c r="B12">
-        <v>-0.7043159303716633</v>
+        <v>-0.8287178736936632</v>
       </c>
       <c r="C12">
-        <v>-0.5236645280367362</v>
+        <v>-0.09728656396455662</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>-0.5060406689038144</v>
+        <v>-0.525427163549491</v>
       </c>
       <c r="B13">
-        <v>-1.126540731696628</v>
+        <v>-1.152558066638554</v>
       </c>
       <c r="C13">
-        <v>0.9512210828602508</v>
+        <v>-1.202186735623831</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>-0.3554803150536228</v>
+        <v>-0.09731617325236792</v>
       </c>
       <c r="B14">
-        <v>-1.0228853570482</v>
+        <v>-0.8963727767959746</v>
       </c>
       <c r="C14">
-        <v>0.5832317319072933</v>
+        <v>-0.001904453916266585</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>0.4181138037437905</v>
+        <v>0.5888498233932778</v>
       </c>
       <c r="B15">
-        <v>-1.316018206052026</v>
+        <v>-1.116136973172684</v>
       </c>
       <c r="C15">
-        <v>1.438480457522829</v>
+        <v>-2.230672762291953</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>-0.9259108582152166</v>
+        <v>-1.183205157884365</v>
       </c>
       <c r="B16">
-        <v>0.02172469499286637</v>
+        <v>-0.09254996257646422</v>
       </c>
       <c r="C16">
-        <v>1.415143958809521</v>
+        <v>-1.088288352276156</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>0.3798879447241734</v>
+        <v>0.312830573353351</v>
       </c>
       <c r="B17">
-        <v>-1.644571548488408</v>
+        <v>-1.646268264501626</v>
       </c>
       <c r="C17">
-        <v>-0.529613826857522</v>
+        <v>0.329303847823959</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>-1.236335534395433</v>
+        <v>-1.325628031576721</v>
       </c>
       <c r="B18">
-        <v>-0.5505501705906217</v>
+        <v>-0.6236947126998115</v>
       </c>
       <c r="C18">
-        <v>0.9744467543192741</v>
+        <v>-1.161631199113487</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>-0.4868902170383683</v>
+        <v>-0.2604800464506457</v>
       </c>
       <c r="B19">
-        <v>-0.3499232588806073</v>
+        <v>-0.1834582100283319</v>
       </c>
       <c r="C19">
-        <v>0.05290409347539841</v>
+        <v>-1.266638331067259</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>1.273826023615954</v>
+        <v>1.341416916635386</v>
       </c>
       <c r="B20">
-        <v>-0.773261363765495</v>
+        <v>-0.515681970741946</v>
       </c>
       <c r="C20">
-        <v>0.5934738196591308</v>
+        <v>-0.4901902345505874</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>-0.9430042906107556</v>
+        <v>-0.634786732439195</v>
       </c>
       <c r="B21">
-        <v>-0.2041122618513471</v>
+        <v>-0.2655072086890053</v>
       </c>
       <c r="C21">
-        <v>-0.8404972969919343</v>
+        <v>-0.3863949438112129</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>-0.4369396842645248</v>
+        <v>-0.7008315380946419</v>
       </c>
       <c r="B22">
-        <v>0.3840042588706465</v>
+        <v>0.1362899350367883</v>
       </c>
       <c r="C22">
-        <v>-1.778878180970563</v>
+        <v>1.829665815734183</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>-0.2620580489118891</v>
+        <v>-0.5313755137891776</v>
       </c>
       <c r="B23">
-        <v>-0.01266263064254897</v>
+        <v>-0.1816540885664503</v>
       </c>
       <c r="C23">
-        <v>-2.023536570586756</v>
+        <v>0.9236374471759018</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>-1.033825848770863</v>
+        <v>-1.189751193490426</v>
       </c>
       <c r="B24">
-        <v>0.2146200795342036</v>
+        <v>0.05962095757227159</v>
       </c>
       <c r="C24">
-        <v>0.5393719970979618</v>
+        <v>-0.5265523669484449</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>1.184942451904489</v>
+        <v>1.792735668709997</v>
       </c>
       <c r="B25">
-        <v>1.487366312306336</v>
+        <v>1.664121273952747</v>
       </c>
       <c r="C25">
-        <v>1.649121345887669</v>
+        <v>-1.056838832457462</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>0.1209605500003687</v>
+        <v>0.3502245475355504</v>
       </c>
       <c r="B26">
-        <v>0.2502838057761926</v>
+        <v>0.5086077703465568</v>
       </c>
       <c r="C26">
-        <v>0.4481286961140197</v>
+        <v>0.3249332921598804</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>-0.03956983684170286</v>
+        <v>-0.4754505997446652</v>
       </c>
       <c r="B27">
-        <v>0.957482657639013</v>
+        <v>0.7682535226177443</v>
       </c>
       <c r="C27">
-        <v>0.7870474064180375</v>
+        <v>-0.2824624808129732</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>-1.557633426901153</v>
+        <v>-1.613502781772877</v>
       </c>
       <c r="B28">
-        <v>0.2552886499972822</v>
+        <v>0.02155787833207107</v>
       </c>
       <c r="C28">
-        <v>-0.9453025265812121</v>
+        <v>1.184627521354866</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>0.03371808074815072</v>
+        <v>-0.4194529731714198</v>
       </c>
       <c r="B29">
-        <v>1.401526733377622</v>
+        <v>1.163120862930084</v>
       </c>
       <c r="C29">
-        <v>0.7234934027481623</v>
+        <v>-0.09073485004926572</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>-0.9417235874200398</v>
+        <v>-0.9638529470904211</v>
       </c>
       <c r="B30">
-        <v>-0.2541445317692291</v>
+        <v>-0.483000435735353</v>
       </c>
       <c r="C30">
-        <v>-1.700917421505136</v>
+        <v>1.603730807127445</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>-0.8474257458183911</v>
+        <v>-0.710551194850317</v>
       </c>
       <c r="B31">
-        <v>0.1654508308605116</v>
+        <v>0.2815955521654577</v>
       </c>
       <c r="C31">
-        <v>-0.7450981067654671</v>
+        <v>0.7583528361708409</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>0.8847549432948995</v>
+        <v>1.264464002262202</v>
       </c>
       <c r="B32">
-        <v>0.9225866298950488</v>
+        <v>1.233372054615782</v>
       </c>
       <c r="C32">
-        <v>1.402581366404597</v>
+        <v>-0.3225239778595805</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>-0.5911486137270207</v>
+        <v>-0.9299513522856242</v>
       </c>
       <c r="B33">
-        <v>0.6933132655084758</v>
+        <v>0.493157402730753</v>
       </c>
       <c r="C33">
-        <v>-1.308094001101051</v>
+        <v>1.33589169124542</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>-1.14766308381194</v>
+        <v>-1.243020020751567</v>
       </c>
       <c r="B34">
-        <v>0.005591531386553533</v>
+        <v>-0.1882273179925346</v>
       </c>
       <c r="C34">
-        <v>-0.5975250465058456</v>
+        <v>1.500646178394788</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>-0.3665315448414714</v>
+        <v>-0.620492862401111</v>
       </c>
       <c r="B35">
-        <v>0.8078136372229062</v>
+        <v>0.564413792675858</v>
       </c>
       <c r="C35">
-        <v>-1.303320467787173</v>
+        <v>1.831354086610655</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>0.06590905201699461</v>
+        <v>0.6824138946514483</v>
       </c>
       <c r="B36">
-        <v>1.413765046613879</v>
+        <v>1.595827832558512</v>
       </c>
       <c r="C36">
-        <v>0.5278993788722807</v>
+        <v>-0.05962429616150648</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>0.4564303556638111</v>
+        <v>1.359491043705897</v>
       </c>
       <c r="B37">
-        <v>1.594058261848837</v>
+        <v>1.7806244287002</v>
       </c>
       <c r="C37">
-        <v>-0.2865435403363132</v>
+        <v>-0.7261004798584301</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>0.2588069485693696</v>
+        <v>0.9686610764877618</v>
       </c>
       <c r="B38">
-        <v>1.201806315845527</v>
+        <v>1.44161983183219</v>
       </c>
       <c r="C38">
-        <v>1.051328923983071</v>
+        <v>-1.116762796949464</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>2.575603046570816</v>
+        <v>1.698914047741826</v>
       </c>
       <c r="B39">
-        <v>1.814313333323123</v>
+        <v>1.563330736574173</v>
       </c>
       <c r="C39">
-        <v>-1.38153086263052</v>
+        <v>0.7140864770834214</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>-1.10386308633201</v>
+        <v>-1.443947241350516</v>
       </c>
       <c r="B40">
-        <v>1.182372826669656</v>
+        <v>0.946614780691276</v>
       </c>
       <c r="C40">
-        <v>-0.5308508618863026</v>
+        <v>0.5144385053920634</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>2.130066115570752</v>
+        <v>1.524206523644162</v>
       </c>
       <c r="B41">
-        <v>0.8334873012626334</v>
+        <v>0.6968807582387534</v>
       </c>
       <c r="C41">
-        <v>1.506779364055104</v>
+        <v>0.9222260271689278</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>-0.2341295671633044</v>
+        <v>0.5444687323175651</v>
       </c>
       <c r="B42">
-        <v>1.149846406480975</v>
+        <v>1.414124633139092</v>
       </c>
       <c r="C42">
-        <v>-0.1746987367640341</v>
+        <v>-0.4252612626054496</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>0.346271027986681</v>
+        <v>0.8101864851249244</v>
       </c>
       <c r="B43">
-        <v>1.249899628569353</v>
+        <v>1.474612137089276</v>
       </c>
       <c r="C43">
-        <v>0.2933981368145192</v>
+        <v>-0.5463062986331207</v>
       </c>
     </row>
   </sheetData>
@@ -1382,464 +1382,464 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>1.292324466758808</v>
+        <v>1.017313767241921</v>
       </c>
       <c r="B2">
-        <v>0.7453327532951389</v>
+        <v>0.4802620230227303</v>
       </c>
       <c r="C2">
-        <v>0.2733476136028417</v>
+        <v>-0.5892339642066744</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>3.073236907803909</v>
+        <v>3.02381862032464</v>
       </c>
       <c r="B3">
-        <v>1.72303847523573</v>
+        <v>1.760596076396717</v>
       </c>
       <c r="C3">
-        <v>-1.367623785301443</v>
+        <v>1.260379928200171</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>-0.1710368221731804</v>
+        <v>-0.3451814481480022</v>
       </c>
       <c r="B4">
-        <v>0.1771719589821266</v>
+        <v>0.2419376529118042</v>
       </c>
       <c r="C4">
-        <v>0.5406151163649793</v>
+        <v>-0.5901255302170042</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>-0.7689570750255005</v>
+        <v>-0.9811014646277211</v>
       </c>
       <c r="B5">
-        <v>0.09927625383592978</v>
+        <v>0.08777640945972391</v>
       </c>
       <c r="C5">
-        <v>1.583978684489818</v>
+        <v>-1.538178504822421</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>-0.3443917412053571</v>
+        <v>-0.4160477670272559</v>
       </c>
       <c r="B6">
-        <v>0.7686870470107372</v>
+        <v>0.7724292386125784</v>
       </c>
       <c r="C6">
-        <v>0.5602275049766577</v>
+        <v>-0.6659098325356738</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>-1.82430885887884</v>
+        <v>-1.613482345153592</v>
       </c>
       <c r="B7">
-        <v>0.135319010353161</v>
+        <v>0.04788601255495393</v>
       </c>
       <c r="C7">
-        <v>1.20614210447716</v>
+        <v>-1.364717082487447</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>0.3555253716374931</v>
+        <v>-0.009785077585562529</v>
       </c>
       <c r="B8">
-        <v>-0.6223235231426741</v>
+        <v>-0.5460406954095498</v>
       </c>
       <c r="C8">
-        <v>1.049576256339433</v>
+        <v>-0.8960364125315136</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>-0.9507623370721807</v>
+        <v>-1.212385858502343</v>
       </c>
       <c r="B9">
-        <v>-0.1433347656812007</v>
+        <v>-0.1024012572558445</v>
       </c>
       <c r="C9">
-        <v>1.520195422597071</v>
+        <v>-1.317496663028699</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>0.1979473487356645</v>
+        <v>0.05809667653261283</v>
       </c>
       <c r="B10">
-        <v>1.328883809677567</v>
+        <v>1.362622702810302</v>
       </c>
       <c r="C10">
-        <v>0.3698539068289043</v>
+        <v>-0.4619136462133034</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>0.9017884381397093</v>
+        <v>0.9073655981810977</v>
       </c>
       <c r="B11">
-        <v>1.896381006361541</v>
+        <v>1.894695022935949</v>
       </c>
       <c r="C11">
-        <v>0.5634863990185417</v>
+        <v>-0.5245914192147377</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>-1.774974813016219</v>
+        <v>-1.65386663782352</v>
       </c>
       <c r="B12">
-        <v>0.5665078951280874</v>
+        <v>0.368152525674305</v>
       </c>
       <c r="C12">
-        <v>-0.3398301698736787</v>
+        <v>0.4090173093930906</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>-1.303235568109046</v>
+        <v>-1.183982817130672</v>
       </c>
       <c r="B13">
-        <v>0.6632568838162016</v>
+        <v>0.4603116176996428</v>
       </c>
       <c r="C13">
-        <v>0.5587511019283102</v>
+        <v>-0.9619875393424786</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>-0.6545837388794093</v>
+        <v>-0.9179168912818259</v>
       </c>
       <c r="B14">
-        <v>0.5893666100578246</v>
+        <v>0.6677065750121896</v>
       </c>
       <c r="C14">
-        <v>1.181497973839041</v>
+        <v>-0.9709182202090643</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>-0.1556048436187133</v>
+        <v>-0.3445525088262062</v>
       </c>
       <c r="B15">
-        <v>0.983833840734379</v>
+        <v>1.041274931771739</v>
       </c>
       <c r="C15">
-        <v>1.336101991571772</v>
+        <v>-1.161708515444963</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>1.482275591227435</v>
+        <v>1.179605304347861</v>
       </c>
       <c r="B16">
-        <v>0.7313674752165674</v>
+        <v>0.7397621005834837</v>
       </c>
       <c r="C16">
-        <v>1.478497269264174</v>
+        <v>-1.188594175677689</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>0.07383771222008294</v>
+        <v>-0.009377475792737712</v>
       </c>
       <c r="B17">
-        <v>1.32819195702573</v>
+        <v>1.378456017992451</v>
       </c>
       <c r="C17">
-        <v>0.6145853781293192</v>
+        <v>-0.6309450628921388</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>0.3059917408018366</v>
+        <v>1.305711720011191</v>
       </c>
       <c r="B18">
-        <v>0.9897420984356253</v>
+        <v>0.9058385874015562</v>
       </c>
       <c r="C18">
-        <v>-1.2198643165353</v>
+        <v>1.802955050781272</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>0.8537989509146879</v>
+        <v>0.5900899741751189</v>
       </c>
       <c r="B19">
-        <v>-1.414584867296655</v>
+        <v>-1.31646159532744</v>
       </c>
       <c r="C19">
-        <v>0.4291732429549311</v>
+        <v>-0.1953472329707114</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>0.959779126617967</v>
+        <v>0.785050556509274</v>
       </c>
       <c r="B20">
-        <v>0.4984006717712814</v>
+        <v>0.5719714775611067</v>
       </c>
       <c r="C20">
-        <v>-0.8601335588654107</v>
+        <v>0.9574203986315488</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>1.150604714665161</v>
+        <v>0.9904069584245667</v>
       </c>
       <c r="B21">
-        <v>1.006604807708377</v>
+        <v>1.0606105192911</v>
       </c>
       <c r="C21">
-        <v>-1.046938362500204</v>
+        <v>1.092930710736202</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>1.238143572689643</v>
+        <v>1.140624673355195</v>
       </c>
       <c r="B22">
-        <v>1.235503247305216</v>
+        <v>1.290633526247357</v>
       </c>
       <c r="C22">
-        <v>-1.378435055633826</v>
+        <v>1.18382082255595</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>-0.2624028406990893</v>
+        <v>0.4719237289758683</v>
       </c>
       <c r="B23">
-        <v>-1.204007464876423</v>
+        <v>-1.47582660629087</v>
       </c>
       <c r="C23">
-        <v>0.9826424480593831</v>
+        <v>-1.205389902753841</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>-0.199527429526186</v>
+        <v>0.04962644363703499</v>
       </c>
       <c r="B24">
-        <v>1.255678068403221</v>
+        <v>1.231823020761321</v>
       </c>
       <c r="C24">
-        <v>-0.1741599616696639</v>
+        <v>-0.1293561676935485</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>-0.08519410279160898</v>
+        <v>-0.3962551088934239</v>
       </c>
       <c r="B25">
-        <v>-1.00483294247406</v>
+        <v>-0.9001730143281629</v>
       </c>
       <c r="C25">
-        <v>-0.977715249160528</v>
+        <v>1.141202691073999</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>-1.467132807487761</v>
+        <v>-1.823325538087758</v>
       </c>
       <c r="B26">
-        <v>-0.9564002799571922</v>
+        <v>-0.8821825174400304</v>
       </c>
       <c r="C26">
-        <v>1.192083944088143</v>
+        <v>-1.027062530543852</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>-0.1754796542165564</v>
+        <v>-0.2386548700877015</v>
       </c>
       <c r="B27">
-        <v>0.03882393498012832</v>
+        <v>0.161254448188287</v>
       </c>
       <c r="C27">
-        <v>-1.879448392981259</v>
+        <v>1.72592659146797</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>0.2255138873551349</v>
+        <v>0.2537756672287033</v>
       </c>
       <c r="B28">
-        <v>-0.08438621820381441</v>
+        <v>-0.02662836937504978</v>
       </c>
       <c r="C28">
-        <v>-1.551069237388517</v>
+        <v>1.346648324399108</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>-1.082463243024424</v>
+        <v>-0.8152914892247654</v>
       </c>
       <c r="B29">
-        <v>0.06452130897685836</v>
+        <v>-0.05296086241703766</v>
       </c>
       <c r="C29">
-        <v>-0.6715641127100702</v>
+        <v>0.4664863281082148</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>-0.852420073306106</v>
+        <v>-0.152651689835073</v>
       </c>
       <c r="B30">
-        <v>1.096653617855317</v>
+        <v>1.105439335397299</v>
       </c>
       <c r="C30">
-        <v>-1.187305031148646</v>
+        <v>1.328182658455426</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>0.1208584733743139</v>
+        <v>0.05090464327112369</v>
       </c>
       <c r="B31">
-        <v>-0.7161942883794052</v>
+        <v>-0.6057632681170192</v>
       </c>
       <c r="C31">
-        <v>-2.052935182177087</v>
+        <v>1.954750419815589</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>2.218486680104235</v>
+        <v>2.18062050979391</v>
       </c>
       <c r="B32">
-        <v>-0.9270207188063644</v>
+        <v>-0.8529737552302095</v>
       </c>
       <c r="C32">
-        <v>0.07580656406586669</v>
+        <v>-0.4269560401319222</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>-0.2759985694022994</v>
+        <v>-0.3767351015274022</v>
       </c>
       <c r="B33">
-        <v>-0.9009167155512675</v>
+        <v>-0.868374406979264</v>
       </c>
       <c r="C33">
-        <v>-0.2107963785232956</v>
+        <v>0.1222272574781823</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>0.2552273008315177</v>
+        <v>-0.014455760475613</v>
       </c>
       <c r="B34">
-        <v>-0.2874579771732071</v>
+        <v>-0.2612668198348807</v>
       </c>
       <c r="C34">
-        <v>0.5975653177968605</v>
+        <v>-0.6395463229334782</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>-0.7797094578755874</v>
+        <v>-0.2578637272756537</v>
       </c>
       <c r="B35">
-        <v>-1.248235500172768</v>
+        <v>-1.373394089394075</v>
       </c>
       <c r="C35">
-        <v>0.6726018498477633</v>
+        <v>-0.7616731293264605</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>0.3057395608230676</v>
+        <v>0.09375635235321879</v>
       </c>
       <c r="B36">
-        <v>-1.827116011207752</v>
+        <v>-1.723509086470088</v>
       </c>
       <c r="C36">
-        <v>-0.9810238376280043</v>
+        <v>0.9985149172783765</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>-0.05403932066475801</v>
+        <v>-0.4018882063292434</v>
       </c>
       <c r="B37">
-        <v>-1.253523028257153</v>
+        <v>-1.202730266747786</v>
       </c>
       <c r="C37">
-        <v>0.2745926059828523</v>
+        <v>-0.05549659050490361</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>-0.6958528124006771</v>
+        <v>-0.9513699420550157</v>
       </c>
       <c r="B38">
-        <v>-0.4532234663704781</v>
+        <v>-0.3761926211995034</v>
       </c>
       <c r="C38">
-        <v>0.6807665782108028</v>
+        <v>-0.7292045921861839</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>0.1843537423351776</v>
+        <v>-0.1032647203196768</v>
       </c>
       <c r="B39">
-        <v>0.02206606632397349</v>
+        <v>0.1011628260813114</v>
       </c>
       <c r="C39">
-        <v>-0.2617585067687712</v>
+        <v>0.2796008398994019</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>-1.399050360162724</v>
+        <v>-0.6150048550890286</v>
       </c>
       <c r="B40">
-        <v>-1.088362099834846</v>
+        <v>-1.304190318291708</v>
       </c>
       <c r="C40">
-        <v>-0.6320057809413792</v>
+        <v>0.8045563453724452</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>0.4682316124254726</v>
+        <v>1.678877399791247</v>
       </c>
       <c r="B41">
-        <v>-1.086474618396615</v>
+        <v>-1.269672433244132</v>
       </c>
       <c r="C41">
-        <v>-0.8175897454219754</v>
+        <v>0.9619512625701298</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>-0.07007766946158712</v>
+        <v>-0.3836316377195036</v>
       </c>
       <c r="B42">
-        <v>-1.964669587599748</v>
+        <v>-1.876313925013265</v>
       </c>
       <c r="C42">
-        <v>-0.8226085215645521</v>
+        <v>0.8755671955624031</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>-0.3164610604635666</v>
+        <v>-0.5594956553351723</v>
       </c>
       <c r="B43">
-        <v>-0.7615447251090967</v>
+        <v>-0.7155467400019921</v>
       </c>
       <c r="C43">
-        <v>0.6907159123589895</v>
+        <v>-0.6797499739107696</v>
       </c>
     </row>
   </sheetData>
@@ -1868,464 +1868,464 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>0.1519216949805242</v>
+        <v>0.2470018337093832</v>
       </c>
       <c r="B2">
-        <v>-0.1619139119244368</v>
+        <v>-0.5174791988122265</v>
       </c>
       <c r="C2">
-        <v>-2.02793297717946</v>
+        <v>-2.100991466510346</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>3.534227498465532</v>
+        <v>3.353259962920401</v>
       </c>
       <c r="B3">
-        <v>-1.586175123546192</v>
+        <v>-1.717580642234</v>
       </c>
       <c r="C3">
-        <v>-1.911742967903682</v>
+        <v>-2.118489432928253</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>0.8533994013605571</v>
+        <v>1.068249817619189</v>
       </c>
       <c r="B4">
-        <v>1.44843677474876</v>
+        <v>1.434064150587596</v>
       </c>
       <c r="C4">
-        <v>-1.336190169147827</v>
+        <v>-1.364614409598742</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>0.09121410169824218</v>
+        <v>0.3297395656156591</v>
       </c>
       <c r="B5">
-        <v>-0.682991625206842</v>
+        <v>-0.5589414936938851</v>
       </c>
       <c r="C5">
-        <v>-1.024144457375373</v>
+        <v>-0.9661560032492807</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>0.2118316218596461</v>
+        <v>0.3957755823413301</v>
       </c>
       <c r="B6">
-        <v>1.173871389389414</v>
+        <v>1.238238822936666</v>
       </c>
       <c r="C6">
-        <v>-0.1461087573652109</v>
+        <v>-0.3986254710542853</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>0.1000201653908007</v>
+        <v>-0.01690011204402699</v>
       </c>
       <c r="B7">
-        <v>-0.6401725684791861</v>
+        <v>-0.7166049746742665</v>
       </c>
       <c r="C7">
-        <v>-0.4354700848867302</v>
+        <v>-0.4838145850087185</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>-0.4578368419164932</v>
+        <v>-0.7969008001754968</v>
       </c>
       <c r="B8">
-        <v>0.1950962768092331</v>
+        <v>0.1532661541784684</v>
       </c>
       <c r="C8">
-        <v>0.6059075393949421</v>
+        <v>0.1886809525426392</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>0.4571351475948686</v>
+        <v>0.3464019001837683</v>
       </c>
       <c r="B9">
-        <v>-1.937106663379139</v>
+        <v>-1.909878642821495</v>
       </c>
       <c r="C9">
-        <v>-0.6761082600397263</v>
+        <v>-0.7125783789454915</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>-0.3094758433753892</v>
+        <v>-0.08973328855181353</v>
       </c>
       <c r="B10">
-        <v>0.5031278493605581</v>
+        <v>0.4995848448533574</v>
       </c>
       <c r="C10">
-        <v>-1.763188294804849</v>
+        <v>-1.589706130406468</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>-1.477449320607352</v>
+        <v>-1.44714318126751</v>
       </c>
       <c r="B11">
-        <v>0.353541829104483</v>
+        <v>0.2846884528021761</v>
       </c>
       <c r="C11">
-        <v>-1.444101325741955</v>
+        <v>-1.160578660380021</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>-0.06119565914139537</v>
+        <v>-0.3248669660704346</v>
       </c>
       <c r="B12">
-        <v>-0.05134022448066751</v>
+        <v>-0.1316085844839969</v>
       </c>
       <c r="C12">
-        <v>0.1455569182245419</v>
+        <v>-0.1974724630201244</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>-0.1266874612367718</v>
+        <v>-0.3384580842158951</v>
       </c>
       <c r="B13">
-        <v>-0.1208876150292913</v>
+        <v>-0.2298533625211127</v>
       </c>
       <c r="C13">
-        <v>-0.9830620057385583</v>
+        <v>-1.217721265666633</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>-0.897160529663338</v>
+        <v>-1.014963079227515</v>
       </c>
       <c r="B14">
-        <v>-0.05785371208340815</v>
+        <v>-0.2201630744151802</v>
       </c>
       <c r="C14">
-        <v>-1.356466684013085</v>
+        <v>-1.255894383415068</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>-0.3558664938095737</v>
+        <v>0.2940219877063945</v>
       </c>
       <c r="B15">
-        <v>0.003570941819287301</v>
+        <v>0.1020791356545857</v>
       </c>
       <c r="C15">
-        <v>0.02873113073213818</v>
+        <v>0.2391434319447282</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>-0.02561964850009195</v>
+        <v>0.3761903439144726</v>
       </c>
       <c r="B16">
-        <v>-0.9141783171204212</v>
+        <v>-0.8269893173644862</v>
       </c>
       <c r="C16">
-        <v>0.006987782616369448</v>
+        <v>0.5405032424880335</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>-1.15670162950505</v>
+        <v>-0.9430868587176131</v>
       </c>
       <c r="B17">
-        <v>-0.09388350660238105</v>
+        <v>-0.1006372148826363</v>
       </c>
       <c r="C17">
-        <v>-0.1123602675500724</v>
+        <v>0.3178896239861215</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>-0.5151070840953966</v>
+        <v>-0.799658916383779</v>
       </c>
       <c r="B18">
-        <v>0.6249192003262335</v>
+        <v>0.4854108887226579</v>
       </c>
       <c r="C18">
-        <v>-0.1800919516927243</v>
+        <v>-0.4410416724735732</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>-0.7482167613274405</v>
+        <v>-0.8730673964344273</v>
       </c>
       <c r="B19">
-        <v>1.015041412694615</v>
+        <v>0.7862255080285333</v>
       </c>
       <c r="C19">
-        <v>-0.4561661927755682</v>
+        <v>-0.8071849709372304</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>1.011106118604589</v>
+        <v>0.6788085179394719</v>
       </c>
       <c r="B20">
-        <v>0.4795871691412446</v>
+        <v>0.3095786836713458</v>
       </c>
       <c r="C20">
-        <v>-1.286343601157792</v>
+        <v>-1.622798008324092</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>-0.4615317843435007</v>
+        <v>-0.3024356657969958</v>
       </c>
       <c r="B21">
-        <v>1.201135377181167</v>
+        <v>1.3057991250261</v>
       </c>
       <c r="C21">
-        <v>-0.9496528407602812</v>
+        <v>-0.8707014792792569</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>0.08129774719409266</v>
+        <v>0.3283650449355333</v>
       </c>
       <c r="B22">
-        <v>0.2471201540787267</v>
+        <v>0.5668986078806783</v>
       </c>
       <c r="C22">
-        <v>-0.7046690643467576</v>
+        <v>-0.5281408273353921</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>0.437081937082418</v>
+        <v>0.1399342840727229</v>
       </c>
       <c r="B23">
-        <v>0.02023201712240657</v>
+        <v>0.02298165430479896</v>
       </c>
       <c r="C23">
-        <v>1.41337275444811</v>
+        <v>0.931322718399864</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>2.039621730659936</v>
+        <v>1.590505713682517</v>
       </c>
       <c r="B24">
-        <v>1.590582557397201</v>
+        <v>1.425845925443409</v>
       </c>
       <c r="C24">
-        <v>-0.003161868304589296</v>
+        <v>0.0340892675203518</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>1.930826902950344</v>
+        <v>1.529948252124906</v>
       </c>
       <c r="B25">
-        <v>-0.4012996036333407</v>
+        <v>-0.5040033224016969</v>
       </c>
       <c r="C25">
-        <v>-0.4245402913050249</v>
+        <v>0.1283440041642636</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>-1.825524743510616</v>
+        <v>-1.880735640119933</v>
       </c>
       <c r="B26">
-        <v>-0.2816847975156752</v>
+        <v>-0.364931433788413</v>
       </c>
       <c r="C26">
-        <v>0.1668964955088609</v>
+        <v>-0.02107905108304987</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>-0.3330384762892741</v>
+        <v>0.157745827378166</v>
       </c>
       <c r="B27">
-        <v>-1.065253491612949</v>
+        <v>-1.07104319512359</v>
       </c>
       <c r="C27">
-        <v>0.1745967458360746</v>
+        <v>0.7750883750521405</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>-0.5786777279274269</v>
+        <v>-0.3380022400972821</v>
       </c>
       <c r="B28">
-        <v>1.27908982031339</v>
+        <v>1.388193971862557</v>
       </c>
       <c r="C28">
-        <v>0.5481420175659831</v>
+        <v>0.7281118362594501</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>1.54293732042673</v>
+        <v>1.318649295558498</v>
       </c>
       <c r="B29">
-        <v>-2.416895272332078</v>
+        <v>-2.236498997987957</v>
       </c>
       <c r="C29">
-        <v>0.7266160786406385</v>
+        <v>0.8003320227267952</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>0.4909614542018187</v>
+        <v>0.0836993030950058</v>
       </c>
       <c r="B30">
-        <v>0.3290423598168254</v>
+        <v>0.3340643380818699</v>
       </c>
       <c r="C30">
-        <v>1.67556162125851</v>
+        <v>1.437477280006137</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>-0.8867380827656283</v>
+        <v>-1.096557704957644</v>
       </c>
       <c r="B31">
-        <v>0.10627131371092</v>
+        <v>-0.004758107212668662</v>
       </c>
       <c r="C31">
-        <v>1.185412426341077</v>
+        <v>0.9866747225418054</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>-0.2100939831852872</v>
+        <v>0.5474026447915761</v>
       </c>
       <c r="B32">
-        <v>1.16075549830817</v>
+        <v>1.782314379572835</v>
       </c>
       <c r="C32">
-        <v>1.553885841242549</v>
+        <v>1.264203009868407</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>1.628809171304431</v>
+        <v>2.378076014201085</v>
       </c>
       <c r="B33">
-        <v>2.248444006653869</v>
+        <v>2.39478860788372</v>
       </c>
       <c r="C33">
-        <v>0.3440663017149523</v>
+        <v>0.3600148293574018</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>-0.1912605177062196</v>
+        <v>-0.0001571748508221346</v>
       </c>
       <c r="B34">
-        <v>-1.440081278190105</v>
+        <v>-1.174454959966973</v>
       </c>
       <c r="C34">
-        <v>0.2622168269587041</v>
+        <v>0.6463771160602547</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>-0.4392496017909341</v>
+        <v>-0.8145264211572738</v>
       </c>
       <c r="B35">
-        <v>0.7112385331931006</v>
+        <v>0.6973924435626856</v>
       </c>
       <c r="C35">
-        <v>1.071228109604527</v>
+        <v>1.089341642734811</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>-0.4752939814090812</v>
+        <v>-0.7973636189588821</v>
       </c>
       <c r="B36">
-        <v>0.05803305102632834</v>
+        <v>-0.01919580131070623</v>
       </c>
       <c r="C36">
-        <v>1.655433204990775</v>
+        <v>1.502831553672507</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>-1.037351489295164</v>
+        <v>-1.142632970552484</v>
       </c>
       <c r="B37">
-        <v>0.004892633710744185</v>
+        <v>-0.1049348387514886</v>
       </c>
       <c r="C37">
-        <v>0.4509698299057961</v>
+        <v>0.3519141525871038</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>-0.1374607029789363</v>
+        <v>0.2487343467226275</v>
       </c>
       <c r="B38">
-        <v>-1.395517188991437</v>
+        <v>-1.14292669573407</v>
       </c>
       <c r="C38">
-        <v>0.8886370530936354</v>
+        <v>1.370628451985157</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>-1.268397574832663</v>
+        <v>-0.9873913834285294</v>
       </c>
       <c r="B39">
-        <v>0.4454059936847098</v>
+        <v>0.444980516269041</v>
       </c>
       <c r="C39">
-        <v>1.156520078573126</v>
+        <v>1.472368175227678</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>-0.7130352000861968</v>
+        <v>-0.8807440691597337</v>
       </c>
       <c r="B40">
-        <v>0.2184602006889973</v>
+        <v>0.09821659139895189</v>
       </c>
       <c r="C40">
-        <v>0.8498245615057912</v>
+        <v>0.7047549891693563</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>-0.01180859630339448</v>
+        <v>-0.2957027591535967</v>
       </c>
       <c r="B41">
-        <v>0.5803328784983027</v>
+        <v>0.3941726560514713</v>
       </c>
       <c r="C41">
-        <v>0.4794029754653857</v>
+        <v>0.3860790407006406</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>0.0818730586385804</v>
+        <v>-0.1169767738924711</v>
       </c>
       <c r="B42">
-        <v>-1.136313213401461</v>
+        <v>-1.044660059701612</v>
       </c>
       <c r="C42">
-        <v>1.307781169458733</v>
+        <v>0.9417415931648128</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>0.05651466318975758</v>
+        <v>-0.1145051332982744</v>
       </c>
       <c r="B43">
-        <v>-1.614681125249679</v>
+        <v>-1.551641540891042</v>
       </c>
       <c r="C43">
-        <v>0.5237545990080453</v>
+        <v>0.6596766274555659</v>
       </c>
     </row>
   </sheetData>
@@ -2354,464 +2354,464 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>2.693125845386747</v>
+        <v>2.702924272889293</v>
       </c>
       <c r="B2">
-        <v>-1.193035576502421</v>
+        <v>-1.199633028918088</v>
       </c>
       <c r="C2">
-        <v>-1.375128623215141</v>
+        <v>-1.374437351959152</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>1.369526016525959</v>
+        <v>1.36107899913367</v>
       </c>
       <c r="B3">
-        <v>-1.388400013888609</v>
+        <v>-1.391117520059424</v>
       </c>
       <c r="C3">
-        <v>0.1638760444140049</v>
+        <v>0.2020743040182096</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>0.8533651676552469</v>
+        <v>0.8588934441572235</v>
       </c>
       <c r="B4">
-        <v>0.2191644617813837</v>
+        <v>0.2363808530820186</v>
       </c>
       <c r="C4">
-        <v>1.530585258765849</v>
+        <v>1.525751406239416</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>0.002372217890132874</v>
+        <v>-0.0102249333272959</v>
       </c>
       <c r="B5">
-        <v>-0.4922329209228654</v>
+        <v>-0.4897139792282455</v>
       </c>
       <c r="C5">
-        <v>-0.01278629377219667</v>
+        <v>0.01296293549525204</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>1.125617210889035</v>
+        <v>1.127339966712297</v>
       </c>
       <c r="B6">
-        <v>-0.8966040310780419</v>
+        <v>-0.8811035919122847</v>
       </c>
       <c r="C6">
-        <v>0.9616100378558421</v>
+        <v>0.9646296020784447</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>-0.1450941041112773</v>
+        <v>-0.1493404610524275</v>
       </c>
       <c r="B7">
-        <v>-0.43369990189306</v>
+        <v>-0.416152516966017</v>
       </c>
       <c r="C7">
-        <v>1.059379091772137</v>
+        <v>1.070432428112234</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>0.2205245756059861</v>
+        <v>0.2014973725344236</v>
       </c>
       <c r="B8">
-        <v>-1.515425075908867</v>
+        <v>-1.514284550874466</v>
       </c>
       <c r="C8">
-        <v>-0.3234316860805672</v>
+        <v>-0.3034816350767329</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>0.485577511049175</v>
+        <v>0.4682230542803286</v>
       </c>
       <c r="B9">
-        <v>-1.248844661619321</v>
+        <v>-1.252307252472664</v>
       </c>
       <c r="C9">
-        <v>-0.3940434976633203</v>
+        <v>-0.3755742316609987</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>-0.3449823759001837</v>
+        <v>-0.3588746508000182</v>
       </c>
       <c r="B10">
-        <v>-1.471465646739776</v>
+        <v>-1.452081543656917</v>
       </c>
       <c r="C10">
-        <v>0.452685827324879</v>
+        <v>0.4696618591846816</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>-0.9912028788885978</v>
+        <v>-1.01320521578909</v>
       </c>
       <c r="B11">
-        <v>-0.4343575616790205</v>
+        <v>-0.4281635883187047</v>
       </c>
       <c r="C11">
-        <v>0.6160414336775314</v>
+        <v>0.6427057331783044</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>-0.1746556116105732</v>
+        <v>-0.1863546742671657</v>
       </c>
       <c r="B12">
-        <v>1.384411664652042</v>
+        <v>1.376939434550694</v>
       </c>
       <c r="C12">
-        <v>0.8671576126201377</v>
+        <v>0.8689847081822198</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>-0.9162481269714549</v>
+        <v>-0.9280030318123423</v>
       </c>
       <c r="B13">
-        <v>0.7266010586122128</v>
+        <v>0.7354472905414374</v>
       </c>
       <c r="C13">
-        <v>0.9389743448260273</v>
+        <v>0.9414591487313562</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>-0.09708117812155866</v>
+        <v>-0.1015138431272291</v>
       </c>
       <c r="B14">
-        <v>-1.022852845076817</v>
+        <v>-0.9977121417587584</v>
       </c>
       <c r="C14">
-        <v>1.340763767024221</v>
+        <v>1.353296461349033</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>-0.6697290035932139</v>
+        <v>-0.6697932654845704</v>
       </c>
       <c r="B15">
-        <v>0.1008228474685485</v>
+        <v>0.1291169462763783</v>
       </c>
       <c r="C15">
-        <v>1.763449236951271</v>
+        <v>1.761495693534943</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>0.5928272086404586</v>
+        <v>0.581012069438149</v>
       </c>
       <c r="B16">
-        <v>0.536645489471623</v>
+        <v>0.5231722283964632</v>
       </c>
       <c r="C16">
-        <v>0.05698945588395758</v>
+        <v>0.05650964834679224</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>-0.679288409539789</v>
+        <v>-0.7049332540624131</v>
       </c>
       <c r="B17">
-        <v>0.03300770180969608</v>
+        <v>0.02380439470139157</v>
       </c>
       <c r="C17">
-        <v>0.3854615889098147</v>
+        <v>0.3938492417126814</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>-0.4369919216297163</v>
+        <v>-0.4414424859473469</v>
       </c>
       <c r="B18">
-        <v>0.9049114840894706</v>
+        <v>0.9132481784462479</v>
       </c>
       <c r="C18">
-        <v>1.048314860135412</v>
+        <v>1.029770645446711</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>-1.069932613585431</v>
+        <v>-0.6726653095815428</v>
       </c>
       <c r="B19">
-        <v>-1.095876293481618</v>
+        <v>-1.22951491937795</v>
       </c>
       <c r="C19">
-        <v>0.4812653818549555</v>
+        <v>0.3283965233804525</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>-1.189166079628399</v>
+        <v>-1.212322890396111</v>
       </c>
       <c r="B20">
-        <v>0.594509488189687</v>
+        <v>0.5901371672313365</v>
       </c>
       <c r="C20">
-        <v>1.001969323464544</v>
+        <v>1.004584856419559</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>0.01560229471633464</v>
+        <v>0.01585168576084766</v>
       </c>
       <c r="B21">
-        <v>0.7156708558550874</v>
+        <v>0.728266050056386</v>
       </c>
       <c r="C21">
-        <v>1.92590338119708</v>
+        <v>1.927199080268837</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>0.3000388215483849</v>
+        <v>0.3040625292146529</v>
       </c>
       <c r="B22">
-        <v>-0.6617347616190892</v>
+        <v>-0.6455437791884073</v>
       </c>
       <c r="C22">
-        <v>0.7771362556050515</v>
+        <v>0.7496222584850716</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>0.05302388128157742</v>
+        <v>0.04073569602215588</v>
       </c>
       <c r="B23">
-        <v>0.8405944545448752</v>
+        <v>0.8354955574942082</v>
       </c>
       <c r="C23">
-        <v>0.1651344899047279</v>
+        <v>0.1628512223138696</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>-1.29718390741739</v>
+        <v>-1.326894058127916</v>
       </c>
       <c r="B24">
-        <v>-0.03644838183734673</v>
+        <v>-0.04377284427078361</v>
       </c>
       <c r="C24">
-        <v>-0.6653489123015944</v>
+        <v>-0.6548905492951452</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>-0.9236490765499771</v>
+        <v>-0.9328266908787323</v>
       </c>
       <c r="B25">
-        <v>1.399450874078169</v>
+        <v>1.403322988841612</v>
       </c>
       <c r="C25">
-        <v>-0.3215084538440172</v>
+        <v>-0.3417124600114401</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>0.6708462930676707</v>
+        <v>0.652286172729599</v>
       </c>
       <c r="B26">
-        <v>-1.246025474784382</v>
+        <v>-1.252199812025795</v>
       </c>
       <c r="C26">
-        <v>-1.091321582295604</v>
+        <v>-1.06574774542397</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>-1.516049503551126</v>
+        <v>-1.541313057036624</v>
       </c>
       <c r="B27">
-        <v>0.2015038350702509</v>
+        <v>0.2001896355222881</v>
       </c>
       <c r="C27">
-        <v>-1.165533569371702</v>
+        <v>-1.175959132389121</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>1.472863661914483</v>
+        <v>1.476782713813085</v>
       </c>
       <c r="B28">
-        <v>-0.9515893339210975</v>
+        <v>-0.9343829952379326</v>
       </c>
       <c r="C28">
-        <v>0.6414809979951691</v>
+        <v>0.6575487024691059</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>-0.1111040669064862</v>
+        <v>-0.1192453234188173</v>
       </c>
       <c r="B29">
-        <v>-0.9250757776637537</v>
+        <v>-0.9124750323706899</v>
       </c>
       <c r="C29">
-        <v>-0.7015960219454578</v>
+        <v>-0.6993410880211665</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>-0.3290056664031937</v>
+        <v>-0.3435790608021344</v>
       </c>
       <c r="B30">
-        <v>0.8645652352670705</v>
+        <v>0.8540170661590434</v>
       </c>
       <c r="C30">
-        <v>-1.256639492666825</v>
+        <v>-1.268611479287959</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>0.9381912937840295</v>
+        <v>0.9359319075869313</v>
       </c>
       <c r="B31">
-        <v>1.883207277855645</v>
+        <v>1.872136220951002</v>
       </c>
       <c r="C31">
-        <v>0.1460929943203005</v>
+        <v>0.1505550488768572</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>-1.363137826304685</v>
+        <v>-1.385177219176251</v>
       </c>
       <c r="B32">
-        <v>-0.199143090396086</v>
+        <v>-0.1963672568806346</v>
       </c>
       <c r="C32">
-        <v>-0.8058423047531081</v>
+        <v>-0.8163420582261351</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>0.6086650269037247</v>
+        <v>0.5965707734354451</v>
       </c>
       <c r="B33">
-        <v>-0.8767147891393186</v>
+        <v>-0.8804083572701803</v>
       </c>
       <c r="C33">
-        <v>-2.296977267560222</v>
+        <v>-2.281286152556957</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>-1.279431106997592</v>
+        <v>-1.313690000696755</v>
       </c>
       <c r="B34">
-        <v>0.1931262797632485</v>
+        <v>0.1824119121972215</v>
       </c>
       <c r="C34">
-        <v>-0.846464603862544</v>
+        <v>-0.8216535360921843</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>1.611147410145251</v>
+        <v>1.613537509146674</v>
       </c>
       <c r="B35">
-        <v>-1.217085338685412</v>
+        <v>-1.20207821688151</v>
       </c>
       <c r="C35">
-        <v>0.8050585647226416</v>
+        <v>0.836105144342671</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>-0.03539969661687081</v>
+        <v>-0.04332366325580176</v>
       </c>
       <c r="B36">
-        <v>-0.1743413215932868</v>
+        <v>-0.1680662022889652</v>
       </c>
       <c r="C36">
-        <v>-1.525807250741203</v>
+        <v>-1.538421237389966</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>1.018914902633842</v>
+        <v>1.020317713723275</v>
       </c>
       <c r="B37">
-        <v>1.584638269479789</v>
+        <v>1.575906443877664</v>
       </c>
       <c r="C37">
-        <v>-1.289559028112035</v>
+        <v>-1.28796216282198</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>-0.1485121419368968</v>
+        <v>-0.1540541935160376</v>
       </c>
       <c r="B38">
-        <v>0.3054195158641026</v>
+        <v>0.3102135933605872</v>
       </c>
       <c r="C38">
-        <v>-1.286594284621887</v>
+        <v>-1.301608468825211</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>-0.5453379343829123</v>
+        <v>-0.548021622856383</v>
       </c>
       <c r="B39">
-        <v>1.246935887093388</v>
+        <v>1.260538606315324</v>
       </c>
       <c r="C39">
-        <v>-0.3288201761761082</v>
+        <v>-0.3443948608750217</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>-1.097370009439716</v>
+        <v>-1.118102128163212</v>
       </c>
       <c r="B40">
-        <v>0.06543960742539623</v>
+        <v>0.07159412059859994</v>
       </c>
       <c r="C40">
-        <v>0.5576127865841599</v>
+        <v>0.5751719533370605</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>-1.203291559854772</v>
+        <v>-1.227738665890858</v>
       </c>
       <c r="B41">
-        <v>-0.1040898694057158</v>
+        <v>-0.1053647087995544</v>
       </c>
       <c r="C41">
-        <v>-1.156633024754234</v>
+        <v>-1.153588509007658</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>2.350749619520246</v>
+        <v>2.369428321540602</v>
       </c>
       <c r="B42">
-        <v>2.026433983531366</v>
+        <v>2.014901236033092</v>
       </c>
       <c r="C42">
-        <v>-1.06643768007263</v>
+        <v>-1.08620117413034</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>0.1808658407839303</v>
+        <v>0.1761654973481437</v>
       </c>
       <c r="B43">
-        <v>1.757982395932856</v>
+        <v>1.755203914124976</v>
       </c>
       <c r="C43">
-        <v>0.2235310180006837</v>
+        <v>0.2055952275473757</v>
       </c>
     </row>
   </sheetData>
@@ -2840,464 +2840,464 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>1.466669927940134</v>
+        <v>1.37824142341998</v>
       </c>
       <c r="B2">
-        <v>-0.5905278147771142</v>
+        <v>-0.5075707257796372</v>
       </c>
       <c r="C2">
-        <v>1.051192987986344</v>
+        <v>1.002004497098405</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>0.8370915302956026</v>
+        <v>0.7116143745677819</v>
       </c>
       <c r="B3">
-        <v>-1.712572235283024</v>
+        <v>-1.64392272470338</v>
       </c>
       <c r="C3">
-        <v>0.09126064173530364</v>
+        <v>0.07333581341950926</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>3.200482935412706</v>
+        <v>3.148361781890172</v>
       </c>
       <c r="B4">
-        <v>-1.817789122124873</v>
+        <v>-1.746474494046388</v>
       </c>
       <c r="C4">
-        <v>0.05300524789445046</v>
+        <v>0.08149842732725217</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>0.4921471174318436</v>
+        <v>0.407102613034683</v>
       </c>
       <c r="B5">
-        <v>-0.5065649505985182</v>
+        <v>-0.4530072180457261</v>
       </c>
       <c r="C5">
-        <v>-0.8132715781307314</v>
+        <v>-0.858929102665197</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>-0.02672965075243245</v>
+        <v>-0.109992434579863</v>
       </c>
       <c r="B6">
-        <v>-0.5874824379530866</v>
+        <v>-0.5456485841695102</v>
       </c>
       <c r="C6">
-        <v>-0.5309560389959025</v>
+        <v>-0.5435659975642665</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>-0.3253904745920309</v>
+        <v>0.4863799073685539</v>
       </c>
       <c r="B7">
-        <v>-0.6506010146579246</v>
+        <v>-0.8295472124795771</v>
       </c>
       <c r="C7">
-        <v>0.0945196713909895</v>
+        <v>0.09266732425386696</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>1.135742162247367</v>
+        <v>1.008598885473016</v>
       </c>
       <c r="B8">
-        <v>-1.894643302814955</v>
+        <v>-1.845821783285884</v>
       </c>
       <c r="C8">
-        <v>0.07745246785368073</v>
+        <v>0.06785577923269628</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>-0.8777675466797449</v>
+        <v>-0.9595559449436377</v>
       </c>
       <c r="B9">
-        <v>-0.836776362544311</v>
+        <v>-0.7777400308216874</v>
       </c>
       <c r="C9">
-        <v>-0.2385455321525392</v>
+        <v>-0.2215090425791894</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>2.39757327934232</v>
+        <v>2.298792685518101</v>
       </c>
       <c r="B10">
-        <v>-2.400515370043879</v>
+        <v>-2.323841756557582</v>
       </c>
       <c r="C10">
-        <v>0.6260780225667107</v>
+        <v>0.629775457552333</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>-0.6211830752237796</v>
+        <v>-0.1777673935642093</v>
       </c>
       <c r="B11">
-        <v>-1.190453564446213</v>
+        <v>-1.499648333546014</v>
       </c>
       <c r="C11">
-        <v>-0.3830813971095444</v>
+        <v>-0.185984747798605</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>-0.4686318674729814</v>
+        <v>-0.5341481783900548</v>
       </c>
       <c r="B12">
-        <v>0.3388486338646468</v>
+        <v>0.3820949261967472</v>
       </c>
       <c r="C12">
-        <v>-1.518234177724581</v>
+        <v>-1.543303896197937</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>-0.4323405716709404</v>
+        <v>-0.4743259392278436</v>
       </c>
       <c r="B13">
-        <v>0.5602503624540076</v>
+        <v>0.5903092901221534</v>
       </c>
       <c r="C13">
-        <v>-1.472155506582761</v>
+        <v>-1.461481847136341</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>-0.937471734894697</v>
+        <v>-1.012254090932666</v>
       </c>
       <c r="B14">
-        <v>-0.5394901363205912</v>
+        <v>-0.5036440439210788</v>
       </c>
       <c r="C14">
-        <v>-1.377627280580759</v>
+        <v>-1.364963685835497</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>0.3868379485722506</v>
+        <v>0.3453174714793379</v>
       </c>
       <c r="B15">
-        <v>-0.3938517936192357</v>
+        <v>-0.3491284909142156</v>
       </c>
       <c r="C15">
-        <v>-2.15278988102465</v>
+        <v>-2.137394199686222</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>0.341374817872815</v>
+        <v>0.2748287185754342</v>
       </c>
       <c r="B16">
-        <v>-0.2371137360677014</v>
+        <v>-0.1755817693863918</v>
       </c>
       <c r="C16">
-        <v>-0.8929959640918574</v>
+        <v>-0.9122061773686888</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>-0.6394778709528618</v>
+        <v>-0.7322403946502448</v>
       </c>
       <c r="B17">
-        <v>-0.6989225315697833</v>
+        <v>-0.6575304838460446</v>
       </c>
       <c r="C17">
-        <v>-0.6580876264277785</v>
+        <v>-0.6646508899096942</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>-0.7282074177466649</v>
+        <v>-0.7780551714178341</v>
       </c>
       <c r="B18">
-        <v>0.3409506596822506</v>
+        <v>0.3850602125399166</v>
       </c>
       <c r="C18">
-        <v>-1.068381186115181</v>
+        <v>-1.062293225864229</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>-0.1809135343475637</v>
+        <v>-0.2870200060484294</v>
       </c>
       <c r="B19">
-        <v>-0.9582905922034448</v>
+        <v>-0.8815754448468665</v>
       </c>
       <c r="C19">
-        <v>0.3229404990369886</v>
+        <v>0.2874385061011424</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>-1.376475206031873</v>
+        <v>-1.461751885388221</v>
       </c>
       <c r="B20">
-        <v>0.02690687250738782</v>
+        <v>0.07792442936569202</v>
       </c>
       <c r="C20">
-        <v>-0.7105755320706223</v>
+        <v>-0.7278939593567366</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>1.912562997031084</v>
+        <v>1.870232155784759</v>
       </c>
       <c r="B21">
-        <v>0.3490153446258079</v>
+        <v>0.3931050421717847</v>
       </c>
       <c r="C21">
-        <v>-1.307344583587847</v>
+        <v>-1.361526420220982</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>-0.6793194586463224</v>
+        <v>-0.760038496575932</v>
       </c>
       <c r="B22">
-        <v>-0.1566267407441647</v>
+        <v>-0.1030184966093625</v>
       </c>
       <c r="C22">
-        <v>0.1344411968265359</v>
+        <v>0.1352006452768925</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>-0.236215663289184</v>
+        <v>0.385554543731234</v>
       </c>
       <c r="B23">
-        <v>0.1554701570648013</v>
+        <v>-0.1177072366410729</v>
       </c>
       <c r="C23">
-        <v>-0.009150834560637196</v>
+        <v>0.02849049630890064</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>-0.9616043190905789</v>
+        <v>-1.030356243703384</v>
       </c>
       <c r="B24">
-        <v>0.8262172622522358</v>
+        <v>0.8522618617814443</v>
       </c>
       <c r="C24">
-        <v>1.183943449956862</v>
+        <v>1.186326543493333</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>0.8385067032807489</v>
+        <v>0.8561321602799203</v>
       </c>
       <c r="B25">
-        <v>1.9706329144126</v>
+        <v>1.987273604636856</v>
       </c>
       <c r="C25">
-        <v>-0.171569048641371</v>
+        <v>-0.2027704496691761</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>0.03843352001856165</v>
+        <v>-0.07202526709976735</v>
       </c>
       <c r="B26">
-        <v>-0.3979861374625083</v>
+        <v>-0.4125406935529781</v>
       </c>
       <c r="C26">
-        <v>-0.3734304975585401</v>
+        <v>-0.3836492004048084</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>-1.378307179274499</v>
+        <v>-1.454557947616368</v>
       </c>
       <c r="B27">
-        <v>0.3813405613353145</v>
+        <v>0.4164711109717605</v>
       </c>
       <c r="C27">
-        <v>0.8365839021461974</v>
+        <v>0.8472121930942224</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>0.2451934177612592</v>
+        <v>0.1500121316728992</v>
       </c>
       <c r="B28">
-        <v>-0.223070133277817</v>
+        <v>-0.1927688077664993</v>
       </c>
       <c r="C28">
-        <v>1.629143206308313</v>
+        <v>1.631108174560164</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>0.6029081557944933</v>
+        <v>0.5729798241462263</v>
       </c>
       <c r="B29">
-        <v>0.5008114501809852</v>
+        <v>0.5544258171997521</v>
       </c>
       <c r="C29">
-        <v>2.13546265850439</v>
+        <v>2.118586650122174</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>-0.910189971001346</v>
+        <v>-0.9501667080598039</v>
       </c>
       <c r="B30">
-        <v>0.9381408169158679</v>
+        <v>0.9415264506507929</v>
       </c>
       <c r="C30">
-        <v>-0.2131625810885583</v>
+        <v>-0.19901336322773</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>0.3065019623457613</v>
+        <v>0.3029575068102564</v>
       </c>
       <c r="B31">
-        <v>1.86038475812684</v>
+        <v>1.869769913819776</v>
       </c>
       <c r="C31">
-        <v>0.1231712324329736</v>
+        <v>0.09826545835375819</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>-1.398179658861826</v>
+        <v>-1.492842499835208</v>
       </c>
       <c r="B32">
-        <v>0.4241289665847974</v>
+        <v>0.440193247225546</v>
       </c>
       <c r="C32">
-        <v>0.8761317905149109</v>
+        <v>0.8584826143606464</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>0.7320847423490956</v>
+        <v>0.6629053651913233</v>
       </c>
       <c r="B33">
-        <v>-0.55813099181163</v>
+        <v>-0.5205950829797961</v>
       </c>
       <c r="C33">
-        <v>1.705011405954597</v>
+        <v>1.731696282714791</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>-0.5238026403752165</v>
+        <v>-0.6764351051874588</v>
       </c>
       <c r="B34">
-        <v>-0.01831092543165793</v>
+        <v>-0.03488884179025613</v>
       </c>
       <c r="C34">
-        <v>0.6716075362319607</v>
+        <v>0.6443234311609758</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>-0.2733230947355296</v>
+        <v>0.4163510247967083</v>
       </c>
       <c r="B35">
-        <v>-0.4085603902807856</v>
+        <v>-0.7786276104604949</v>
       </c>
       <c r="C35">
-        <v>-0.3380469077248483</v>
+        <v>-0.405707401634229</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>0.9720075452615031</v>
+        <v>0.9225095671894051</v>
       </c>
       <c r="B36">
-        <v>0.1794114551192038</v>
+        <v>0.25127025310183</v>
       </c>
       <c r="C36">
-        <v>2.556714489248678</v>
+        <v>2.545267194513276</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>-0.7825172307386608</v>
+        <v>-0.8299788356403259</v>
       </c>
       <c r="B37">
-        <v>1.341895783539898</v>
+        <v>1.344424837032613</v>
       </c>
       <c r="C37">
-        <v>-0.2844389525912507</v>
+        <v>-0.3030606671938255</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>-0.9242791262884692</v>
+        <v>-0.971873357373229</v>
       </c>
       <c r="B38">
-        <v>0.5770435236122371</v>
+        <v>0.5895153867507348</v>
       </c>
       <c r="C38">
-        <v>-0.3843549758547299</v>
+        <v>-0.3634025965052604</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>-1.190185979599244</v>
+        <v>-1.188652646127967</v>
       </c>
       <c r="B39">
-        <v>0.818435837497673</v>
+        <v>0.6625216526200037</v>
       </c>
       <c r="C39">
-        <v>0.2800683253073746</v>
+        <v>0.4912828950480665</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>-0.1805010614736863</v>
+        <v>-0.2685325164740772</v>
       </c>
       <c r="B40">
-        <v>0.9128799373238498</v>
+        <v>0.8854537983897465</v>
       </c>
       <c r="C40">
-        <v>-0.5033244580598309</v>
+        <v>-0.5026148862581203</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>0.3785216216387076</v>
+        <v>0.3195981843714863</v>
       </c>
       <c r="B41">
-        <v>0.9390630359756422</v>
+        <v>0.9568083555733615</v>
       </c>
       <c r="C41">
-        <v>1.587453482863947</v>
+        <v>1.533056738371018</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>-0.009251868580174186</v>
+        <v>-0.03901733804096796</v>
       </c>
       <c r="B42">
-        <v>1.60890702874192</v>
+        <v>1.605254717397211</v>
       </c>
       <c r="C42">
-        <v>-0.3974909631267054</v>
+        <v>-0.4307635456310138</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>-0.2223741822758289</v>
+        <v>-0.2568819244237313</v>
       </c>
       <c r="B43">
-        <v>1.727544922215251</v>
+        <v>1.715164958602722</v>
       </c>
       <c r="C43">
-        <v>-0.2371667109599808</v>
+        <v>-0.247189819655676</v>
       </c>
     </row>
   </sheetData>
@@ -3326,464 +3326,464 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>1.772995796331489</v>
+        <v>1.168737533954393</v>
       </c>
       <c r="B2">
-        <v>-1.022455149340553</v>
+        <v>-1.04861089723715</v>
       </c>
       <c r="C2">
-        <v>2.04091495821783</v>
+        <v>1.677808220360131</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>2.555219926679307</v>
+        <v>1.946039549740941</v>
       </c>
       <c r="B3">
-        <v>-1.741280217054787</v>
+        <v>-1.677198136799927</v>
       </c>
       <c r="C3">
-        <v>0.878175380456956</v>
+        <v>0.3278368556916582</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>1.114799005935695</v>
+        <v>1.92680849500163</v>
       </c>
       <c r="B4">
-        <v>-1.329422765204431</v>
+        <v>-1.552791083829072</v>
       </c>
       <c r="C4">
-        <v>-0.1940670531928056</v>
+        <v>-0.1439117998904613</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>0.07645465645912079</v>
+        <v>0.7506324574680323</v>
       </c>
       <c r="B5">
-        <v>-0.1449712315661406</v>
+        <v>-0.3633204138303151</v>
       </c>
       <c r="C5">
-        <v>1.407533504240758</v>
+        <v>1.974607749367719</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>0.2442369008687258</v>
+        <v>0.08099072577425803</v>
       </c>
       <c r="B6">
-        <v>-0.5712920781518047</v>
+        <v>-0.3636600963603657</v>
       </c>
       <c r="C6">
-        <v>-0.1784759214491803</v>
+        <v>-0.4165495726415883</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>0.3634249307740616</v>
+        <v>0.1391774043865367</v>
       </c>
       <c r="B7">
-        <v>-1.497074032614976</v>
+        <v>-1.294576017869682</v>
       </c>
       <c r="C7">
-        <v>-0.6055683583992677</v>
+        <v>-0.8152751830132946</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>0.001332527744157374</v>
+        <v>-0.3177512645498276</v>
       </c>
       <c r="B8">
-        <v>-1.176515927174665</v>
+        <v>-1.099190747815194</v>
       </c>
       <c r="C8">
-        <v>1.199566115945945</v>
+        <v>0.8633300239086347</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>-0.8330119037271101</v>
+        <v>-0.994742394641455</v>
       </c>
       <c r="B9">
-        <v>-1.037682639996282</v>
+        <v>-0.8909679896440129</v>
       </c>
       <c r="C9">
-        <v>0.1030441767189552</v>
+        <v>-0.1812728932949317</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>1.53154380739984</v>
+        <v>2.522927688029761</v>
       </c>
       <c r="B10">
-        <v>-1.83350329576569</v>
+        <v>-2.149087674693555</v>
       </c>
       <c r="C10">
-        <v>-0.7695073873664096</v>
+        <v>-0.4266944959448747</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>0.4405933656301991</v>
+        <v>0.4074792726288864</v>
       </c>
       <c r="B11">
-        <v>-0.6785636157888076</v>
+        <v>-0.4475346310174852</v>
       </c>
       <c r="C11">
-        <v>-1.148510892429635</v>
+        <v>-1.128620316883096</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>-0.3950098290600575</v>
+        <v>-0.5269268147478949</v>
       </c>
       <c r="B12">
-        <v>-0.1297309020211384</v>
+        <v>-0.08964969282402749</v>
       </c>
       <c r="C12">
-        <v>0.7157141067283064</v>
+        <v>0.7982981334107253</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>-0.6476955672614985</v>
+        <v>-0.6846541506897115</v>
       </c>
       <c r="B13">
-        <v>-0.3342287992155124</v>
+        <v>-0.1884206430620295</v>
       </c>
       <c r="C13">
-        <v>-0.007288311573603042</v>
+        <v>0.004432748312971752</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>-0.5632245335823814</v>
+        <v>-0.5863614173762652</v>
       </c>
       <c r="B14">
-        <v>-0.7942776374327718</v>
+        <v>-0.5629815119997502</v>
       </c>
       <c r="C14">
-        <v>-0.9623413033683299</v>
+        <v>-1.05712813215714</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>-1.262304962663317</v>
+        <v>-1.091907583107378</v>
       </c>
       <c r="B15">
-        <v>-0.4473938600924808</v>
+        <v>-0.5731305381138968</v>
       </c>
       <c r="C15">
-        <v>-0.04112968574161451</v>
+        <v>0.2708704088103386</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>0.7101924393324414</v>
+        <v>0.9881770114424701</v>
       </c>
       <c r="B16">
-        <v>-0.8643935992911658</v>
+        <v>-1.012666149573462</v>
       </c>
       <c r="C16">
-        <v>-0.09351383431910659</v>
+        <v>0.5544838322446426</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>-1.598207412194276</v>
+        <v>-1.608026933355189</v>
       </c>
       <c r="B17">
-        <v>-0.5157277084343458</v>
+        <v>-0.4331644809669311</v>
       </c>
       <c r="C17">
-        <v>0.1023793130530743</v>
+        <v>0.03646877615312126</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>2.353027291067329</v>
+        <v>1.917166646279289</v>
       </c>
       <c r="B18">
-        <v>-0.0447162324074081</v>
+        <v>0.083495133133184</v>
       </c>
       <c r="C18">
-        <v>0.6784578948316718</v>
+        <v>0.4102002753026273</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>0.9889991345884818</v>
+        <v>0.5695705412959078</v>
       </c>
       <c r="B19">
-        <v>-1.183955198349515</v>
+        <v>-1.142963115033788</v>
       </c>
       <c r="C19">
-        <v>1.372640079915688</v>
+        <v>1.14781067955754</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>0.8008685286202423</v>
+        <v>0.4924298028615267</v>
       </c>
       <c r="B20">
-        <v>-0.3078434281121558</v>
+        <v>-0.2810992458897915</v>
       </c>
       <c r="C20">
-        <v>1.953995966584507</v>
+        <v>1.850172460666794</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>0.4487622797722928</v>
+        <v>0.8939417198294397</v>
       </c>
       <c r="B21">
-        <v>-1.245686707645285</v>
+        <v>-1.40695787429169</v>
       </c>
       <c r="C21">
-        <v>-0.5173328684868511</v>
+        <v>-0.191535225014391</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>-1.085731523892832</v>
+        <v>-0.7185241035460168</v>
       </c>
       <c r="B22">
-        <v>-0.8656799644029008</v>
+        <v>-1.033845880829753</v>
       </c>
       <c r="C22">
-        <v>-0.2571400420537724</v>
+        <v>0.1170784170036256</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>-0.5597619388466136</v>
+        <v>-0.610189959639126</v>
       </c>
       <c r="B23">
-        <v>0.435156406985064</v>
+        <v>0.537909013339122</v>
       </c>
       <c r="C23">
-        <v>-1.192552322975299</v>
+        <v>-1.373008325854239</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>-1.209522113223112</v>
+        <v>-1.246461335906653</v>
       </c>
       <c r="B24">
-        <v>0.6796565203115305</v>
+        <v>0.7252716368424847</v>
       </c>
       <c r="C24">
-        <v>-0.5579175017686226</v>
+        <v>-0.6816405708971426</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>-0.9211821127483925</v>
+        <v>-1.079584924318076</v>
       </c>
       <c r="B25">
-        <v>0.5904367709755992</v>
+        <v>0.5548553862257624</v>
       </c>
       <c r="C25">
-        <v>0.5826452060316485</v>
+        <v>0.4230799016183455</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>-0.3259758894480615</v>
+        <v>-0.5483135679226669</v>
       </c>
       <c r="B26">
-        <v>0.03964415430730453</v>
+        <v>0.007460219668838419</v>
       </c>
       <c r="C26">
-        <v>0.3564347013416634</v>
+        <v>0.1916283656344659</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>-0.684854555236207</v>
+        <v>-0.515906282994572</v>
       </c>
       <c r="B27">
-        <v>0.4274095716505457</v>
+        <v>0.3531883086965749</v>
       </c>
       <c r="C27">
-        <v>-0.4433373425579378</v>
+        <v>-0.4103769827206536</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>-0.4401715883547831</v>
+        <v>-0.4741123162389695</v>
       </c>
       <c r="B28">
-        <v>0.4086226077659138</v>
+        <v>0.4705996295756335</v>
       </c>
       <c r="C28">
-        <v>-1.495391384361637</v>
+        <v>-1.451127961128098</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>-0.3545606870849902</v>
+        <v>-0.4778144999849835</v>
       </c>
       <c r="B29">
-        <v>-0.02064731920025332</v>
+        <v>0.09447690313680195</v>
       </c>
       <c r="C29">
-        <v>-1.408162248821185</v>
+        <v>-1.732064608397189</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>-0.6343010502975671</v>
+        <v>-0.628760281906641</v>
       </c>
       <c r="B30">
-        <v>1.083884159126949</v>
+        <v>1.121689422561387</v>
       </c>
       <c r="C30">
-        <v>-0.6409618791553192</v>
+        <v>-0.6188222159429313</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>-0.3286588639139287</v>
+        <v>-0.468609064732702</v>
       </c>
       <c r="B31">
-        <v>1.382042881260269</v>
+        <v>1.354814417256486</v>
       </c>
       <c r="C31">
-        <v>0.9073459808598222</v>
+        <v>0.8720808721523511</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>-1.363349245202795</v>
+        <v>-1.007494225877239</v>
       </c>
       <c r="B32">
-        <v>1.118356243398243</v>
+        <v>1.070348123283413</v>
       </c>
       <c r="C32">
-        <v>0.4185667796258185</v>
+        <v>0.8139173082692327</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>1.490880571835925</v>
+        <v>1.894551678665744</v>
       </c>
       <c r="B33">
-        <v>-0.4311879338944281</v>
+        <v>-0.4661974530455739</v>
       </c>
       <c r="C33">
-        <v>-2.426546783627791</v>
+        <v>-2.608498762300353</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>0.7383967066126372</v>
+        <v>0.5622351761351807</v>
       </c>
       <c r="B34">
-        <v>1.667427125523942</v>
+        <v>1.563875168800883</v>
       </c>
       <c r="C34">
-        <v>0.3202057441302749</v>
+        <v>0.3804276234266922</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>0.3225716367646393</v>
+        <v>0.2831634728443806</v>
       </c>
       <c r="B35">
-        <v>1.091393893232221</v>
+        <v>1.158699297171626</v>
       </c>
       <c r="C35">
-        <v>-1.250200781378829</v>
+        <v>-1.233053829634875</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>1.152498490268846</v>
+        <v>0.7953492899407263</v>
       </c>
       <c r="B36">
-        <v>1.087476884850334</v>
+        <v>1.078209461777385</v>
       </c>
       <c r="C36">
-        <v>1.450417540963228</v>
+        <v>1.095893184271505</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>-0.05002288870664897</v>
+        <v>-0.2086018071395637</v>
       </c>
       <c r="B37">
-        <v>1.464637251753186</v>
+        <v>1.350839855279529</v>
       </c>
       <c r="C37">
-        <v>0.9566844728959392</v>
+        <v>1.114376920747104</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>-1.04183201793643</v>
+        <v>-0.563120093350994</v>
       </c>
       <c r="B38">
-        <v>0.8616008560179531</v>
+        <v>0.7746109155837884</v>
       </c>
       <c r="C38">
-        <v>-0.9188160549866408</v>
+        <v>-0.5406974488731882</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>0.01450555890324985</v>
+        <v>0.02198968321659181</v>
       </c>
       <c r="B39">
-        <v>0.9121174577096965</v>
+        <v>1.049874100370882</v>
       </c>
       <c r="C39">
-        <v>-1.563439089254523</v>
+        <v>-1.546478818306292</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>-1.186957542593731</v>
+        <v>-1.311080617980692</v>
       </c>
       <c r="B40">
-        <v>0.8692152726138883</v>
+        <v>0.7758514123081486</v>
       </c>
       <c r="C40">
-        <v>0.2962833369683649</v>
+        <v>0.2691130353909632</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>-0.3146475514623581</v>
+        <v>-0.5377624598212241</v>
       </c>
       <c r="B41">
-        <v>1.443844408106598</v>
+        <v>1.334182272640141</v>
       </c>
       <c r="C41">
-        <v>1.094888351544419</v>
+        <v>1.081798516999312</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>-0.7481955584067311</v>
+        <v>-0.8276797737504481</v>
       </c>
       <c r="B42">
-        <v>0.8810763249609185</v>
+        <v>0.8899128718202455</v>
       </c>
       <c r="C42">
-        <v>-0.3497908875132692</v>
+        <v>-0.3417529440077456</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>-0.5721242197448272</v>
+        <v>-0.3269822759173419</v>
       </c>
       <c r="B43">
-        <v>1.774231452607347</v>
+        <v>1.727850725255136</v>
       </c>
       <c r="C43">
-        <v>0.1860983237267604</v>
+        <v>0.6227957776019822</v>
       </c>
     </row>
   </sheetData>
@@ -3812,464 +3812,464 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>1.70355249438877</v>
+        <v>2.112759732604328</v>
       </c>
       <c r="B2">
-        <v>1.648363183464975</v>
+        <v>-1.814913921054913</v>
       </c>
       <c r="C2">
-        <v>1.191900051254406</v>
+        <v>1.219802553133789</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>1.705088668888739</v>
+        <v>2.28962566803667</v>
       </c>
       <c r="B3">
-        <v>0.9272153981485283</v>
+        <v>-1.135965571465315</v>
       </c>
       <c r="C3">
-        <v>-0.3278208604305515</v>
+        <v>-0.2376778155148381</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>1.739660471379309</v>
+        <v>1.098769563444483</v>
       </c>
       <c r="B4">
-        <v>0.7622947786998293</v>
+        <v>-0.6655068793201708</v>
       </c>
       <c r="C4">
-        <v>1.944093493132035</v>
+        <v>1.537201283252407</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>0.9723444490853983</v>
+        <v>0.6656070611470173</v>
       </c>
       <c r="B5">
-        <v>0.7791532349830436</v>
+        <v>-0.5679799776784588</v>
       </c>
       <c r="C5">
-        <v>-1.227279980732149</v>
+        <v>-1.403249847729544</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>1.325953289094762</v>
+        <v>0.8078585834761257</v>
       </c>
       <c r="B6">
-        <v>1.397901703402514</v>
+        <v>-1.254529313176672</v>
       </c>
       <c r="C6">
-        <v>0.5975880531677176</v>
+        <v>0.3360164335068164</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>1.220328936229415</v>
+        <v>1.492781809719542</v>
       </c>
       <c r="B7">
-        <v>0.6472995170047325</v>
+        <v>-0.9535053280855629</v>
       </c>
       <c r="C7">
-        <v>-1.819779457204544</v>
+        <v>-1.609606378794007</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>1.429903590152867</v>
+        <v>1.890113244338891</v>
       </c>
       <c r="B8">
-        <v>1.41644363375967</v>
+        <v>-1.698626680164286</v>
       </c>
       <c r="C8">
-        <v>1.214534640731393</v>
+        <v>1.225002215957261</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>-0.5193909360336081</v>
+        <v>0.1321095888940821</v>
       </c>
       <c r="B9">
-        <v>1.450706776056016</v>
+        <v>-1.750153424082369</v>
       </c>
       <c r="C9">
-        <v>0.4277450301410824</v>
+        <v>0.6410884637752937</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>0.4409840122417307</v>
+        <v>0.1917066960067903</v>
       </c>
       <c r="B10">
-        <v>1.328031533271106</v>
+        <v>-1.081443595397628</v>
       </c>
       <c r="C10">
-        <v>-1.266919259383448</v>
+        <v>-1.452733153029786</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>-0.6278711849195482</v>
+        <v>-0.702333185550412</v>
       </c>
       <c r="B11">
-        <v>0.8451793766112488</v>
+        <v>-0.6207879117015266</v>
       </c>
       <c r="C11">
-        <v>-0.8793135682269861</v>
+        <v>-1.098922588595986</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>-0.3711403709421531</v>
+        <v>-0.4844693742737358</v>
       </c>
       <c r="B12">
-        <v>0.718355541907148</v>
+        <v>-0.5416753010372902</v>
       </c>
       <c r="C12">
-        <v>-0.911993981435033</v>
+        <v>-1.001853560531099</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>-0.5241847708123415</v>
+        <v>-0.4997125673272338</v>
       </c>
       <c r="B13">
-        <v>0.1391859733386235</v>
+        <v>-0.324125939802859</v>
       </c>
       <c r="C13">
-        <v>-0.5788416639450416</v>
+        <v>-0.3148137451641039</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>-0.640639085234349</v>
+        <v>-0.3037456339880332</v>
       </c>
       <c r="B14">
-        <v>0.9473843127730892</v>
+        <v>-1.083887995115092</v>
       </c>
       <c r="C14">
-        <v>-0.7958653223418277</v>
+        <v>-0.7107884850417163</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>-0.8886541961240196</v>
+        <v>-0.9486824155478524</v>
       </c>
       <c r="B15">
-        <v>0.4543727055682278</v>
+        <v>-0.3293947219592268</v>
       </c>
       <c r="C15">
-        <v>-0.03578738020159079</v>
+        <v>-0.2348973883517363</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>-0.1027362612590097</v>
+        <v>-0.2592085377258255</v>
       </c>
       <c r="B16">
-        <v>0.9094501510596982</v>
+        <v>-0.7025021683817206</v>
       </c>
       <c r="C16">
-        <v>-0.9018189790343145</v>
+        <v>-1.091052188034229</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>-0.4878212488821679</v>
+        <v>-0.6349533398350722</v>
       </c>
       <c r="B17">
-        <v>0.7690062249892876</v>
+        <v>-0.5557278194253369</v>
       </c>
       <c r="C17">
-        <v>-0.5566562796844681</v>
+        <v>-0.7612835240451907</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>1.057468334921438</v>
+        <v>0.6824730484535038</v>
       </c>
       <c r="B18">
-        <v>1.055773904344307</v>
+        <v>-0.8500990568076925</v>
       </c>
       <c r="C18">
-        <v>-0.6665831530977036</v>
+        <v>-0.8972946909432993</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>0.2796614381624524</v>
+        <v>0.6043965414372363</v>
       </c>
       <c r="B19">
-        <v>0.9447735323718036</v>
+        <v>-1.089416522971225</v>
       </c>
       <c r="C19">
-        <v>1.191415304770433</v>
+        <v>1.444371737606307</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>2.425163269795521</v>
+        <v>2.435597866055014</v>
       </c>
       <c r="B20">
-        <v>0.1912018456586889</v>
+        <v>-0.2587408574365399</v>
       </c>
       <c r="C20">
-        <v>2.347886472120459</v>
+        <v>2.183763289651585</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>0.5508946064362007</v>
+        <v>0.3523224908054826</v>
       </c>
       <c r="B21">
-        <v>0.9017159411302654</v>
+        <v>-0.6745441896444005</v>
       </c>
       <c r="C21">
-        <v>-1.248278696153135</v>
+        <v>-1.423692405168959</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>-0.5641563762494278</v>
+        <v>-0.6994589633471482</v>
       </c>
       <c r="B22">
-        <v>0.6253688389772095</v>
+        <v>-0.4606204706420233</v>
       </c>
       <c r="C22">
-        <v>-0.07531366054546228</v>
+        <v>-0.3234721072759338</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>-0.6077621789875578</v>
+        <v>-0.85121767447674</v>
       </c>
       <c r="B23">
-        <v>-0.2655955642528495</v>
+        <v>0.38287770624675</v>
       </c>
       <c r="C23">
-        <v>0.7650199292778419</v>
+        <v>0.5116720290254509</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>-0.2421803852084504</v>
+        <v>-0.3401387389809971</v>
       </c>
       <c r="B24">
-        <v>-0.520927631080869</v>
+        <v>0.4335888188213765</v>
       </c>
       <c r="C24">
-        <v>-0.4979850622016286</v>
+        <v>-0.4458874101709121</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>-1.210181579880282</v>
+        <v>-0.8471983285274958</v>
       </c>
       <c r="B25">
-        <v>-0.4833286577379542</v>
+        <v>0.290762336304749</v>
       </c>
       <c r="C25">
-        <v>0.7972254782390518</v>
+        <v>1.105599128251364</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>-0.7386170039778723</v>
+        <v>-0.1197051599373731</v>
       </c>
       <c r="B26">
-        <v>-0.3957802605828034</v>
+        <v>0.3469324971601803</v>
       </c>
       <c r="C26">
-        <v>0.5780995751222049</v>
+        <v>0.8628991126317798</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>0.4965489563966712</v>
+        <v>0.09571293487219008</v>
       </c>
       <c r="B27">
-        <v>-0.4786101047047356</v>
+        <v>0.5529294620127235</v>
       </c>
       <c r="C27">
-        <v>1.869112333855478</v>
+        <v>1.598005143833624</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>-0.1864735560761513</v>
+        <v>-0.2800861149467135</v>
       </c>
       <c r="B28">
-        <v>-1.244994347745081</v>
+        <v>1.317322597829626</v>
       </c>
       <c r="C28">
-        <v>0.06694633263449397</v>
+        <v>-0.07451517319076095</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>-1.012091102473745</v>
+        <v>-1.123281857515756</v>
       </c>
       <c r="B29">
-        <v>-0.03116093480184496</v>
+        <v>0.1581487824120179</v>
       </c>
       <c r="C29">
-        <v>-0.5616728202745869</v>
+        <v>-0.6538561868367394</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>-1.470171119491047</v>
+        <v>-1.39791187514254</v>
       </c>
       <c r="B30">
-        <v>-0.7896172076773265</v>
+        <v>0.7483440584117091</v>
       </c>
       <c r="C30">
-        <v>-0.2493448004540351</v>
+        <v>0.0009260443727361429</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>-1.179159897115789</v>
+        <v>-1.088099045287806</v>
       </c>
       <c r="B31">
-        <v>-0.593384832447383</v>
+        <v>0.3575757901316646</v>
       </c>
       <c r="C31">
-        <v>0.725653151508962</v>
+        <v>1.163668222722302</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>-0.9916931236580567</v>
+        <v>-0.9744126827213109</v>
       </c>
       <c r="B32">
-        <v>-1.08823794570869</v>
+        <v>1.182496628143986</v>
       </c>
       <c r="C32">
-        <v>0.502366437615529</v>
+        <v>0.3405871645470827</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>0.03632513818924245</v>
+        <v>0.167605755537887</v>
       </c>
       <c r="B33">
-        <v>-1.535355365043442</v>
+        <v>1.578111540568483</v>
       </c>
       <c r="C33">
-        <v>-1.406758215309244</v>
+        <v>-1.334108648989087</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>0.2202565078993874</v>
+        <v>0.1872727851593418</v>
       </c>
       <c r="B34">
-        <v>-1.524760899095545</v>
+        <v>1.618191652579013</v>
       </c>
       <c r="C34">
-        <v>-0.3826858859525736</v>
+        <v>-0.5183746355851178</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>-0.674025547576549</v>
+        <v>-0.7851683468126038</v>
       </c>
       <c r="B35">
-        <v>-1.048684595351887</v>
+        <v>0.9689507103803664</v>
       </c>
       <c r="C35">
-        <v>-0.9025645790766063</v>
+        <v>-0.6618959678829825</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>0.4531381171423745</v>
+        <v>0.4249968830117517</v>
       </c>
       <c r="B36">
-        <v>-1.561964583203888</v>
+        <v>1.439398797710421</v>
       </c>
       <c r="C36">
-        <v>-0.210302799336369</v>
+        <v>0.1526540486251668</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>-1.120055883105649</v>
+        <v>-0.9166265843559204</v>
       </c>
       <c r="B37">
-        <v>-1.103984702495865</v>
+        <v>1.075111964125395</v>
       </c>
       <c r="C37">
-        <v>0.3093404617291309</v>
+        <v>0.6993207533138828</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>-0.5058508179166905</v>
+        <v>-0.4314657795750958</v>
       </c>
       <c r="B38">
-        <v>-1.346891364980725</v>
+        <v>1.428112231478431</v>
       </c>
       <c r="C38">
-        <v>-0.6505723895462873</v>
+        <v>-0.6997623298934585</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>-0.5910203081090252</v>
+        <v>-0.5674095584199622</v>
       </c>
       <c r="B39">
-        <v>-0.8953488499829135</v>
+        <v>0.9798330082118152</v>
       </c>
       <c r="C39">
-        <v>-0.8232820277987193</v>
+        <v>-0.8348972926522659</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>0.2171676320829532</v>
+        <v>-0.2294188395799918</v>
       </c>
       <c r="B40">
-        <v>-0.3140631552404998</v>
+        <v>0.3535380946824156</v>
       </c>
       <c r="C40">
-        <v>2.076020963871674</v>
+        <v>1.870891168096647</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>-1.443170280624903</v>
+        <v>-1.381902990953228</v>
       </c>
       <c r="B41">
-        <v>-0.8071076599169091</v>
+        <v>0.614434590494391</v>
       </c>
       <c r="C41">
-        <v>0.04474101479194188</v>
+        <v>0.3222270307418441</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>-1.099029105584473</v>
+        <v>-1.129768514931097</v>
       </c>
       <c r="B42">
-        <v>-0.9216890025823818</v>
+        <v>0.6940946915692883</v>
       </c>
       <c r="C42">
-        <v>-0.3893288829679118</v>
+        <v>0.03034790514074771</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>1.523636407755397</v>
+        <v>1.364665856759747</v>
       </c>
       <c r="B43">
-        <v>-1.907690442886419</v>
+        <v>1.893391686075506</v>
       </c>
       <c r="C43">
-        <v>0.7170609813703821</v>
+        <v>0.5385917952356641</v>
       </c>
     </row>
   </sheetData>
@@ -4298,464 +4298,464 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>1.133944688696681</v>
+        <v>0.9308323873755062</v>
       </c>
       <c r="B2">
-        <v>1.035245948300038</v>
+        <v>0.9403309592969791</v>
       </c>
       <c r="C2">
-        <v>-0.09830269768981897</v>
+        <v>-0.1049026869992664</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>0.4681456048846806</v>
+        <v>0.2636924492414255</v>
       </c>
       <c r="B3">
-        <v>0.8325205925780785</v>
+        <v>0.7163026844725212</v>
       </c>
       <c r="C3">
-        <v>0.3483473645144576</v>
+        <v>-0.4536649582439675</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>3.294116636843348</v>
+        <v>3.112357058805142</v>
       </c>
       <c r="B4">
-        <v>1.487825260232766</v>
+        <v>1.374803489274498</v>
       </c>
       <c r="C4">
-        <v>-0.6734414895473579</v>
+        <v>0.5321061563164607</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>-0.4440553390341577</v>
+        <v>-0.6897190681456417</v>
       </c>
       <c r="B5">
-        <v>0.9375998119674795</v>
+        <v>0.811365102330508</v>
       </c>
       <c r="C5">
-        <v>0.579597147122201</v>
+        <v>-0.6828552428422756</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>0.3917270348540936</v>
+        <v>0.9651241450069896</v>
       </c>
       <c r="B6">
-        <v>0.9804457209257907</v>
+        <v>1.275097796652268</v>
       </c>
       <c r="C6">
-        <v>0.7630683947584191</v>
+        <v>-0.5380897598531744</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>-0.535006150377597</v>
+        <v>-0.6513913086649186</v>
       </c>
       <c r="B7">
-        <v>0.2939828698222667</v>
+        <v>0.1921164104915029</v>
       </c>
       <c r="C7">
-        <v>1.741255837719835</v>
+        <v>-1.750244201471162</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>2.490598332540705</v>
+        <v>2.298225450904964</v>
       </c>
       <c r="B8">
-        <v>1.161668249684415</v>
+        <v>1.035441485547339</v>
       </c>
       <c r="C8">
-        <v>-1.186800270421406</v>
+        <v>0.9098223842311063</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>0.3151221711745614</v>
+        <v>0.02006316887729118</v>
       </c>
       <c r="B9">
-        <v>1.249663892803125</v>
+        <v>1.140340241730426</v>
       </c>
       <c r="C9">
-        <v>0.1072587677176448</v>
+        <v>-0.2427752707069655</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>1.989877921684788</v>
+        <v>1.705039956594657</v>
       </c>
       <c r="B10">
-        <v>1.674764636399598</v>
+        <v>1.572003426711321</v>
       </c>
       <c r="C10">
-        <v>-0.6972690812337656</v>
+        <v>0.5449175699114851</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>-0.8402249845140367</v>
+        <v>-0.4392033106771479</v>
       </c>
       <c r="B11">
-        <v>0.08545245143888294</v>
+        <v>0.3687847198915512</v>
       </c>
       <c r="C11">
-        <v>0.9506517880177083</v>
+        <v>-0.9741799575230143</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>-0.3297420444875456</v>
+        <v>0.160200092410197</v>
       </c>
       <c r="B12">
-        <v>1.100990634406349</v>
+        <v>1.331379847703041</v>
       </c>
       <c r="C12">
-        <v>1.313422143720168</v>
+        <v>-1.104536855017499</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>-0.709172330161486</v>
+        <v>-0.7302247839661213</v>
       </c>
       <c r="B13">
-        <v>-0.6371693193461154</v>
+        <v>-0.7363545072615121</v>
       </c>
       <c r="C13">
-        <v>1.526219002352094</v>
+        <v>-1.574861161982261</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>0.01671299318855147</v>
+        <v>-0.2260536418000111</v>
       </c>
       <c r="B14">
-        <v>1.003522543165248</v>
+        <v>0.8879882635312853</v>
       </c>
       <c r="C14">
-        <v>0.6949291795619802</v>
+        <v>-0.8276657645666262</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>-0.1270893872558413</v>
+        <v>-0.4384533308520611</v>
       </c>
       <c r="B15">
-        <v>0.845234618908421</v>
+        <v>0.7546752398074639</v>
       </c>
       <c r="C15">
-        <v>-0.1458130355672493</v>
+        <v>-0.02902378551321025</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>-0.5506654095964311</v>
+        <v>-0.7328454580179936</v>
       </c>
       <c r="B16">
-        <v>0.4686136653930489</v>
+        <v>0.3876336737494073</v>
       </c>
       <c r="C16">
-        <v>1.130154002694966</v>
+        <v>-1.127358156728717</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>-0.9220330750061303</v>
+        <v>-0.6852795179472123</v>
       </c>
       <c r="B17">
-        <v>0.7408742407265846</v>
+        <v>0.9951086550749418</v>
       </c>
       <c r="C17">
-        <v>0.8723337443753119</v>
+        <v>-0.6472730968006736</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>0.9030087415108321</v>
+        <v>1.349377963788322</v>
       </c>
       <c r="B18">
-        <v>0.8924502713639815</v>
+        <v>1.049453969424806</v>
       </c>
       <c r="C18">
-        <v>1.538463542017522</v>
+        <v>-1.262161939124488</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>0.2328388782304406</v>
+        <v>-0.03282971705337011</v>
       </c>
       <c r="B19">
-        <v>1.305042239874798</v>
+        <v>1.18713602709126</v>
       </c>
       <c r="C19">
-        <v>0.2370075059143673</v>
+        <v>-0.2719290202763431</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>0.7234971245396293</v>
+        <v>0.5632881875093716</v>
       </c>
       <c r="B20">
-        <v>0.6076106296381035</v>
+        <v>0.5053426065171982</v>
       </c>
       <c r="C20">
-        <v>0.2554099830113524</v>
+        <v>-0.3616848857613341</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>0.525978821306612</v>
+        <v>0.3387869390372077</v>
       </c>
       <c r="B21">
-        <v>1.170234735577538</v>
+        <v>1.074470449506165</v>
       </c>
       <c r="C21">
-        <v>0.9130009387289968</v>
+        <v>-0.8362246515307417</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>-0.2446742450690056</v>
+        <v>-0.4886163241693759</v>
       </c>
       <c r="B22">
-        <v>0.03152324611318014</v>
+        <v>-0.04410114641331365</v>
       </c>
       <c r="C22">
-        <v>-1.377176519864646</v>
+        <v>1.268620531839241</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>-0.5368260861601842</v>
+        <v>0.1478665460463313</v>
       </c>
       <c r="B23">
-        <v>0.0007464769702816523</v>
+        <v>0.3207351815230252</v>
       </c>
       <c r="C23">
-        <v>-1.414389586514837</v>
+        <v>1.757390669554549</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>0.4875337525192463</v>
+        <v>0.4002552090397538</v>
       </c>
       <c r="B24">
-        <v>-0.4160729826797818</v>
+        <v>-0.4752318116139405</v>
       </c>
       <c r="C24">
-        <v>-0.9824342420707264</v>
+        <v>0.8997662235652504</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>-1.297282036617438</v>
+        <v>-1.557829296709776</v>
       </c>
       <c r="B25">
-        <v>-0.2593082821912688</v>
+        <v>-0.3202945191803254</v>
       </c>
       <c r="C25">
-        <v>-1.248765318172393</v>
+        <v>1.116510760832658</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>0.5320285172532618</v>
+        <v>0.2776124761013207</v>
       </c>
       <c r="B26">
-        <v>0.2225086112453747</v>
+        <v>0.156468636576629</v>
       </c>
       <c r="C26">
-        <v>-2.123829454759006</v>
+        <v>2.035258786548355</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>1.216123169552928</v>
+        <v>0.9797597090891373</v>
       </c>
       <c r="B27">
-        <v>-0.03836253377653622</v>
+        <v>-0.08336661907639156</v>
       </c>
       <c r="C27">
-        <v>-2.311231596092562</v>
+        <v>2.185541537642165</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>0.2998383341661942</v>
+        <v>0.5416215239762875</v>
       </c>
       <c r="B28">
-        <v>-0.0245741129525752</v>
+        <v>0.08399268712024288</v>
       </c>
       <c r="C28">
-        <v>-1.390136078979688</v>
+        <v>1.609325567923623</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>-1.222938696542719</v>
+        <v>-0.8030295626757967</v>
       </c>
       <c r="B29">
-        <v>-0.3059379613912049</v>
+        <v>-0.009886237975860086</v>
       </c>
       <c r="C29">
-        <v>-0.7944735449268251</v>
+        <v>1.165313644329126</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>-1.222567025686472</v>
+        <v>-1.432519624335266</v>
       </c>
       <c r="B30">
-        <v>-0.6320855290994219</v>
+        <v>-0.6911049403098207</v>
       </c>
       <c r="C30">
-        <v>-0.4451798332881615</v>
+        <v>0.2852659761944825</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>-0.7048208935377537</v>
+        <v>-0.8103846577054057</v>
       </c>
       <c r="B31">
-        <v>-0.5952712972322962</v>
+        <v>-0.6543369279845769</v>
       </c>
       <c r="C31">
-        <v>0.137363692794627</v>
+        <v>-0.1741184796646067</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>-1.363922381266767</v>
+        <v>-1.512973413792755</v>
       </c>
       <c r="B32">
-        <v>-0.825012690666779</v>
+        <v>-0.8912900399043575</v>
       </c>
       <c r="C32">
-        <v>-0.04919665457767434</v>
+        <v>-0.07750892684521865</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>-1.275524462115986</v>
+        <v>-1.351670528140316</v>
       </c>
       <c r="B33">
-        <v>-1.287525847290583</v>
+        <v>-1.349617396089243</v>
       </c>
       <c r="C33">
-        <v>0.3435591569317628</v>
+        <v>-0.4199947753719729</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>-1.123053189483929</v>
+        <v>-1.219368755439507</v>
       </c>
       <c r="B34">
-        <v>-1.288910923937489</v>
+        <v>-1.119847800099618</v>
       </c>
       <c r="C34">
-        <v>-0.1015884154726618</v>
+        <v>0.3147488249115629</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>0.64166068595438</v>
+        <v>0.8795071113322424</v>
       </c>
       <c r="B35">
-        <v>-1.790193021981829</v>
+        <v>-1.839053666738435</v>
       </c>
       <c r="C35">
-        <v>1.286760589099005</v>
+        <v>-1.235315575191327</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>-0.07425648159608431</v>
+        <v>0.04032428530208246</v>
       </c>
       <c r="B36">
-        <v>-1.721004780788279</v>
+        <v>-1.783008222561763</v>
       </c>
       <c r="C36">
-        <v>0.523929235348862</v>
+        <v>-0.5649377337038861</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>-0.8973836007908137</v>
+        <v>-0.9385674842854914</v>
       </c>
       <c r="B37">
-        <v>-0.9106786863078261</v>
+        <v>-0.9783743744328869</v>
       </c>
       <c r="C37">
-        <v>0.1372084801502712</v>
+        <v>-0.1488195017021589</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>-0.305035525643422</v>
+        <v>-0.2583942653013253</v>
       </c>
       <c r="B38">
-        <v>-1.478312840142177</v>
+        <v>-1.528390479413086</v>
       </c>
       <c r="C38">
-        <v>0.5085798225773729</v>
+        <v>-0.5348351002151147</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>-0.8402318013553891</v>
+        <v>-0.9695251692771826</v>
       </c>
       <c r="B39">
-        <v>-1.426202977920734</v>
+        <v>-1.279392571860936</v>
       </c>
       <c r="C39">
-        <v>0.6705420755221037</v>
+        <v>-0.4790570261071892</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>-0.03104640593148517</v>
+        <v>1.003455371017549</v>
       </c>
       <c r="B40">
-        <v>-0.4477624119822077</v>
+        <v>-0.171158331623796</v>
       </c>
       <c r="C40">
-        <v>-1.352359000996471</v>
+        <v>1.923498929603689</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>0.0362855313816743</v>
+        <v>-0.0204885724735407</v>
       </c>
       <c r="B41">
-        <v>-1.243102726459252</v>
+        <v>-1.310847441719362</v>
       </c>
       <c r="C41">
-        <v>-0.8385652086166868</v>
+        <v>0.68298224669063</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>0.2675687888048404</v>
+        <v>0.3905050081924785</v>
       </c>
       <c r="B42">
-        <v>-1.379354225592421</v>
+        <v>-1.441118147305309</v>
       </c>
       <c r="C42">
-        <v>0.599024989491485</v>
+        <v>-0.6113606477168331</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>-0.3690561768568053</v>
+        <v>-0.3785272482181171</v>
       </c>
       <c r="B43">
-        <v>-1.421678195796571</v>
+        <v>-1.454196372459846</v>
       </c>
       <c r="C43">
-        <v>0.05286464464942132</v>
+        <v>-0.1956906486343567</v>
       </c>
     </row>
   </sheetData>
@@ -4784,464 +4784,464 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>3.571645414183548</v>
+        <v>2.964335174574281</v>
       </c>
       <c r="B2">
-        <v>-2.226236373133506</v>
+        <v>-2.068150071593851</v>
       </c>
       <c r="C2">
-        <v>2.531711512414474</v>
+        <v>2.024284579770719</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>2.176182042835977</v>
+        <v>2.351421847167308</v>
       </c>
       <c r="B3">
-        <v>-2.013803125563613</v>
+        <v>-2.082866470875346</v>
       </c>
       <c r="C3">
-        <v>1.185862952294898</v>
+        <v>1.22942793136197</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>2.402469829363266</v>
+        <v>2.808426367234496</v>
       </c>
       <c r="B4">
-        <v>-0.6985951242358379</v>
+        <v>-0.8310760993031516</v>
       </c>
       <c r="C4">
-        <v>0.8119247867483076</v>
+        <v>0.9609745389856469</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>-0.002714494982709237</v>
+        <v>0.0863781531276353</v>
       </c>
       <c r="B5">
-        <v>-0.7066026784268504</v>
+        <v>-0.7119151464290708</v>
       </c>
       <c r="C5">
-        <v>-1.144943121502236</v>
+        <v>-1.23669579123659</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>0.6367812280391246</v>
+        <v>0.4036417490123262</v>
       </c>
       <c r="B6">
-        <v>-1.385002782446451</v>
+        <v>-1.154321897741601</v>
       </c>
       <c r="C6">
-        <v>-1.335205126808261</v>
+        <v>-1.418215794090648</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>-0.1715718128564329</v>
+        <v>-0.2987169858351758</v>
       </c>
       <c r="B7">
-        <v>-0.6955289324911785</v>
+        <v>-0.5527062390402498</v>
       </c>
       <c r="C7">
-        <v>-0.6164937542172552</v>
+        <v>-0.6559868648516053</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>1.195131460769396</v>
+        <v>0.8786700511518192</v>
       </c>
       <c r="B8">
-        <v>-1.113746752522446</v>
+        <v>-1.074435996938243</v>
       </c>
       <c r="C8">
-        <v>1.747064162370984</v>
+        <v>1.537173352381602</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>0.08700466342575322</v>
+        <v>0.503708781166921</v>
       </c>
       <c r="B9">
-        <v>-1.144346241111026</v>
+        <v>-1.480749580007853</v>
       </c>
       <c r="C9">
-        <v>1.250653829292802</v>
+        <v>1.153832972443079</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>1.352508922442307</v>
+        <v>1.850716338571971</v>
       </c>
       <c r="B10">
-        <v>-1.571286928790421</v>
+        <v>-1.854954059674345</v>
       </c>
       <c r="C10">
-        <v>1.19040159387034</v>
+        <v>1.300778494211454</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>-0.5319010878290591</v>
+        <v>-0.604987129190634</v>
       </c>
       <c r="B11">
-        <v>-0.04980820548944493</v>
+        <v>0.02124648491838179</v>
       </c>
       <c r="C11">
-        <v>-0.3272305649046666</v>
+        <v>-0.3506025755818921</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>0.5047017369676717</v>
+        <v>0.3128134268680154</v>
       </c>
       <c r="B12">
-        <v>-0.8752287769112</v>
+        <v>-0.695910271698574</v>
       </c>
       <c r="C12">
-        <v>-1.715324660930478</v>
+        <v>-1.656448252142944</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>-0.5319772829854631</v>
+        <v>-0.5826386092231659</v>
       </c>
       <c r="B13">
-        <v>0.3309452902365848</v>
+        <v>0.3747028751368077</v>
       </c>
       <c r="C13">
-        <v>0.09551775525195738</v>
+        <v>0.08234131511282135</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>-0.03932822684282618</v>
+        <v>-0.1877672009653521</v>
       </c>
       <c r="B14">
-        <v>-0.8258183762493715</v>
+        <v>-0.6867256019695899</v>
       </c>
       <c r="C14">
-        <v>-0.3697413287657258</v>
+        <v>-0.4710499578083353</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>-0.6509022932720417</v>
+        <v>-0.4075668411066037</v>
       </c>
       <c r="B15">
-        <v>-0.1385168370076648</v>
+        <v>-0.3900674191738269</v>
       </c>
       <c r="C15">
-        <v>0.6917902419304203</v>
+        <v>0.850386109996641</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>0.4133199784669772</v>
+        <v>0.4877180538691565</v>
       </c>
       <c r="B16">
-        <v>-0.5284336665601955</v>
+        <v>-0.4464989411184906</v>
       </c>
       <c r="C16">
-        <v>-1.947710755449156</v>
+        <v>-2.022971136975028</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>-0.539967455074197</v>
+        <v>-0.5964367501233058</v>
       </c>
       <c r="B17">
-        <v>0.1696282160050927</v>
+        <v>0.2587598983127167</v>
       </c>
       <c r="C17">
-        <v>-0.7726997286748579</v>
+        <v>-0.7699988585342599</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>0.820032209210921</v>
+        <v>0.5929522098550484</v>
       </c>
       <c r="B18">
-        <v>-0.9745346306518106</v>
+        <v>-0.7590252619732845</v>
       </c>
       <c r="C18">
-        <v>-2.153132404359527</v>
+        <v>-2.167931271412717</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>0.6385310097637239</v>
+        <v>0.4004028444728475</v>
       </c>
       <c r="B19">
-        <v>-1.12874747987088</v>
+        <v>-0.9708022003132801</v>
       </c>
       <c r="C19">
-        <v>-0.5591238038358108</v>
+        <v>-0.6075990841536695</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>1.263265906295122</v>
+        <v>1.389960797569528</v>
       </c>
       <c r="B20">
-        <v>-1.355122676308224</v>
+        <v>-1.434037027918801</v>
       </c>
       <c r="C20">
-        <v>-1.540064286148643</v>
+        <v>-1.710364815767716</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>0.4829564725415917</v>
+        <v>0.7671818513839243</v>
       </c>
       <c r="B21">
-        <v>-1.1103373536888</v>
+        <v>-1.179500828136928</v>
       </c>
       <c r="C21">
-        <v>-1.430811392371525</v>
+        <v>-1.602572606957395</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>-0.5113072866543409</v>
+        <v>-0.3241839582351937</v>
       </c>
       <c r="B22">
-        <v>0.009844773751151833</v>
+        <v>-0.1188002275695991</v>
       </c>
       <c r="C22">
-        <v>1.032193369889014</v>
+        <v>1.219562525317486</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>0.1022366379332769</v>
+        <v>-0.04454012192447351</v>
       </c>
       <c r="B23">
-        <v>0.6133962542741473</v>
+        <v>0.664369045287466</v>
       </c>
       <c r="C23">
-        <v>-0.4607580705325157</v>
+        <v>-0.399944473634003</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>-0.3555100878210698</v>
+        <v>-0.4525188917293965</v>
       </c>
       <c r="B24">
-        <v>0.7708291661666371</v>
+        <v>0.7537389145919547</v>
       </c>
       <c r="C24">
-        <v>1.149311695144844</v>
+        <v>1.061383638288088</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>0.1587899409189746</v>
+        <v>-0.0006425476416308516</v>
       </c>
       <c r="B25">
-        <v>0.2295972620113207</v>
+        <v>0.3063201789635496</v>
       </c>
       <c r="C25">
-        <v>0.1795419427372217</v>
+        <v>0.1259594528292085</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>-0.3321482133591232</v>
+        <v>-0.2658926217423028</v>
       </c>
       <c r="B26">
-        <v>0.4933605508733634</v>
+        <v>0.3992242838019506</v>
       </c>
       <c r="C26">
-        <v>0.1658657673975273</v>
+        <v>0.1821331081727298</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>0.07138359813013988</v>
+        <v>0.3578957901450081</v>
       </c>
       <c r="B27">
-        <v>0.3430985655552031</v>
+        <v>0.1168574721830252</v>
       </c>
       <c r="C27">
-        <v>1.317473868154134</v>
+        <v>1.502550801818625</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>-0.5195057178067131</v>
+        <v>-0.5967214764851253</v>
       </c>
       <c r="B28">
-        <v>0.3730585245622794</v>
+        <v>0.4329045508088051</v>
       </c>
       <c r="C28">
-        <v>-0.1238433311730665</v>
+        <v>-0.1190833683685723</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>-0.7448948616802099</v>
+        <v>-0.8068292161916472</v>
       </c>
       <c r="B29">
-        <v>0.6476583678880957</v>
+        <v>0.651443910049594</v>
       </c>
       <c r="C29">
-        <v>0.697132145711077</v>
+        <v>0.6654297466235677</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>-0.4372561952690093</v>
+        <v>-0.5048505927116417</v>
       </c>
       <c r="B30">
-        <v>0.9572158999728453</v>
+        <v>0.9790756933431567</v>
       </c>
       <c r="C30">
-        <v>-0.2055423405613905</v>
+        <v>-0.17346936040444</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>-0.7889340819389619</v>
+        <v>-0.7664379525251677</v>
       </c>
       <c r="B31">
-        <v>1.107715078561561</v>
+        <v>1.095000619535048</v>
       </c>
       <c r="C31">
-        <v>-0.1808255164595723</v>
+        <v>-0.0644413372011246</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>-0.9711097807959481</v>
+        <v>-0.9305321614261189</v>
       </c>
       <c r="B32">
-        <v>1.029229547267487</v>
+        <v>1.019342170534893</v>
       </c>
       <c r="C32">
-        <v>-0.07170301183232758</v>
+        <v>0.02272752400034879</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>-0.9742895689476314</v>
+        <v>-0.9645899126431229</v>
       </c>
       <c r="B33">
-        <v>1.086653134809246</v>
+        <v>1.081076908876656</v>
       </c>
       <c r="C33">
-        <v>-0.03912424268113058</v>
+        <v>0.07501887924729954</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>-0.8430226049544051</v>
+        <v>-0.8356297460505637</v>
       </c>
       <c r="B34">
-        <v>1.20106997343705</v>
+        <v>1.207606346480145</v>
       </c>
       <c r="C34">
-        <v>-0.1440303341357198</v>
+        <v>-0.09614547258652005</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>-0.7366412490347364</v>
+        <v>-0.7294301293623399</v>
       </c>
       <c r="B35">
-        <v>1.243186804700572</v>
+        <v>1.249647531866265</v>
       </c>
       <c r="C35">
-        <v>-0.2311572904092058</v>
+        <v>-0.1589602537170298</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>-0.7677018258857861</v>
+        <v>-0.7968258323446652</v>
       </c>
       <c r="B36">
-        <v>0.8467444426527994</v>
+        <v>0.8304403555508749</v>
       </c>
       <c r="C36">
-        <v>0.6527955151757117</v>
+        <v>0.6318823867397417</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>-0.8804411772215461</v>
+        <v>-0.8266096231428415</v>
       </c>
       <c r="B37">
-        <v>1.009615727606349</v>
+        <v>0.9334450752258893</v>
       </c>
       <c r="C37">
-        <v>0.3335180254300562</v>
+        <v>0.4532066977346408</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>-0.8900273313295537</v>
+        <v>-0.8440834778318697</v>
       </c>
       <c r="B38">
-        <v>1.068269247957383</v>
+        <v>1.062012329610256</v>
       </c>
       <c r="C38">
-        <v>-0.08612054301439133</v>
+        <v>-0.009263866061980985</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>-0.9200409187872609</v>
+        <v>-0.9117495282801378</v>
       </c>
       <c r="B39">
-        <v>1.18511395835291</v>
+        <v>1.185496230292631</v>
       </c>
       <c r="C39">
-        <v>-0.06684576416438895</v>
+        <v>-0.0220167796421801</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>-0.2824955063695938</v>
+        <v>-0.4026882262206449</v>
       </c>
       <c r="B40">
-        <v>0.7832918625411244</v>
+        <v>0.7648288508373065</v>
       </c>
       <c r="C40">
-        <v>0.6913502705168513</v>
+        <v>0.6441262764544822</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>-0.7655670649437273</v>
+        <v>-0.7995201510722509</v>
       </c>
       <c r="B41">
-        <v>0.9944941752570151</v>
+        <v>0.9734145939942024</v>
       </c>
       <c r="C41">
-        <v>0.4855001664025858</v>
+        <v>0.4904909974816919</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>-0.8752656365614606</v>
+        <v>-0.8819323300443397</v>
       </c>
       <c r="B42">
-        <v>0.7952755981780542</v>
+        <v>0.8496372831670056</v>
       </c>
       <c r="C42">
-        <v>-0.4766500162980544</v>
+        <v>-0.4005112629061602</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>-0.8124192880840245</v>
+        <v>-0.7919014221204992</v>
       </c>
       <c r="B43">
-        <v>1.252404518840648</v>
+        <v>1.281951738107507</v>
       </c>
       <c r="C43">
-        <v>-0.2105282115033004</v>
+        <v>-0.09939814493702993</v>
       </c>
     </row>
   </sheetData>
@@ -5270,464 +5270,464 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>2.107033606318526</v>
+        <v>2.484249901210604</v>
       </c>
       <c r="B2">
-        <v>-1.761142113134502</v>
+        <v>-1.908649141166306</v>
       </c>
       <c r="C2">
-        <v>2.353397725608833</v>
+        <v>2.653692181231293</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>2.70339903247439</v>
+        <v>2.469408696630135</v>
       </c>
       <c r="B3">
-        <v>-1.743748778333011</v>
+        <v>-1.536490650003027</v>
       </c>
       <c r="C3">
-        <v>3.13283089875354</v>
+        <v>3.103564544135232</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>3.587294352136437</v>
+        <v>3.303867789566279</v>
       </c>
       <c r="B4">
-        <v>-2.745833106089585</v>
+        <v>-2.517004376758538</v>
       </c>
       <c r="C4">
-        <v>2.57606501152113</v>
+        <v>2.533157771612724</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>0.62968313159798</v>
+        <v>0.5020249199869251</v>
       </c>
       <c r="B5">
-        <v>-1.237391919935265</v>
+        <v>-1.12530583763765</v>
       </c>
       <c r="C5">
-        <v>-0.9604901811942731</v>
+        <v>-0.7970246808129715</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>1.404828703035174</v>
+        <v>1.248698294190735</v>
       </c>
       <c r="B6">
-        <v>-1.551664554480308</v>
+        <v>-1.431694625247974</v>
       </c>
       <c r="C6">
-        <v>-2.248401046250287</v>
+        <v>-2.025188753397605</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>-0.3235953409422709</v>
+        <v>-0.1792184133716367</v>
       </c>
       <c r="B7">
-        <v>0.02557080218535299</v>
+        <v>-0.118679732251121</v>
       </c>
       <c r="C7">
-        <v>-0.9411928687295618</v>
+        <v>-1.034202399601207</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>-0.164314819175406</v>
+        <v>0.04965740128294683</v>
       </c>
       <c r="B8">
-        <v>-0.2945118042762317</v>
+        <v>-0.4545615548087034</v>
       </c>
       <c r="C8">
-        <v>0.004133247197997537</v>
+        <v>0.0348391362357892</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>-0.003270221476088045</v>
+        <v>-0.09896084703787954</v>
       </c>
       <c r="B9">
-        <v>-0.204008486870656</v>
+        <v>-0.1704522056693446</v>
       </c>
       <c r="C9">
-        <v>0.2374912796203688</v>
+        <v>0.2658731158263019</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>0.1699524562428283</v>
+        <v>0.06449126734748439</v>
       </c>
       <c r="B10">
-        <v>-0.3912129627825607</v>
+        <v>-0.3908290702434962</v>
       </c>
       <c r="C10">
-        <v>-1.082090746725214</v>
+        <v>-1.047867667550905</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>-0.7813527119947076</v>
+        <v>-0.8257215119305562</v>
       </c>
       <c r="B11">
-        <v>0.3205049997688897</v>
+        <v>0.3421693107975233</v>
       </c>
       <c r="C11">
-        <v>-0.484173947503172</v>
+        <v>-0.4978731341481745</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>-0.3360062699791824</v>
+        <v>-0.2266210695261265</v>
       </c>
       <c r="B12">
-        <v>-0.05455675783408423</v>
+        <v>-0.1945543221930943</v>
       </c>
       <c r="C12">
-        <v>-0.7629120417143036</v>
+        <v>-0.8681997926957042</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>-0.3795840951050787</v>
+        <v>-0.2106148239011697</v>
       </c>
       <c r="B13">
-        <v>-0.1394799320611511</v>
+        <v>-0.2762802017523945</v>
       </c>
       <c r="C13">
-        <v>-0.374111536227028</v>
+        <v>-0.3710898579688655</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>0.7197509429692883</v>
+        <v>1.153656563126177</v>
       </c>
       <c r="B14">
-        <v>-1.239725260808265</v>
+        <v>-1.549822780255557</v>
       </c>
       <c r="C14">
-        <v>-0.6262023538337101</v>
+        <v>-0.8913253508200137</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>-0.4664739826667813</v>
+        <v>-0.536808119614032</v>
       </c>
       <c r="B15">
-        <v>0.18267324520455</v>
+        <v>0.213489700308281</v>
       </c>
       <c r="C15">
-        <v>-0.3307997796634075</v>
+        <v>-0.3470995917972065</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>-0.3203740760992881</v>
+        <v>-0.4023394566129745</v>
       </c>
       <c r="B16">
-        <v>-0.4546518149384617</v>
+        <v>-0.4021901582338226</v>
       </c>
       <c r="C16">
-        <v>-1.093655923807865</v>
+        <v>-1.095857554558</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>0.003842339493922322</v>
+        <v>-0.09594044729933816</v>
       </c>
       <c r="B17">
-        <v>-0.4182917996461576</v>
+        <v>-0.3822062242312265</v>
       </c>
       <c r="C17">
-        <v>-0.7085068625992293</v>
+        <v>-0.7305544002659452</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>1.196556593319035</v>
+        <v>1.716905147511624</v>
       </c>
       <c r="B18">
-        <v>-1.767927378243107</v>
+        <v>-2.102116912954018</v>
       </c>
       <c r="C18">
-        <v>-1.405555212837432</v>
+        <v>-1.477979299181137</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>-0.1433555487454345</v>
+        <v>-0.1168099195817492</v>
       </c>
       <c r="B19">
-        <v>-0.3740351748347781</v>
+        <v>-0.3768082008299318</v>
       </c>
       <c r="C19">
-        <v>-0.5182082330962924</v>
+        <v>-0.3721696070492125</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>1.741216121505041</v>
+        <v>1.554474442896513</v>
       </c>
       <c r="B20">
-        <v>-1.911565710694048</v>
+        <v>-1.742972281468354</v>
       </c>
       <c r="C20">
-        <v>-0.8251348085869129</v>
+        <v>-0.6924309908920825</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>0.9387883341364396</v>
+        <v>0.7979656322364657</v>
       </c>
       <c r="B21">
-        <v>-1.146707450290938</v>
+        <v>-1.061134043808332</v>
       </c>
       <c r="C21">
-        <v>-1.621995426759187</v>
+        <v>-1.527911538497872</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>-0.4198484726209692</v>
+        <v>-0.4913233233608181</v>
       </c>
       <c r="B22">
-        <v>0.4179731268175324</v>
+        <v>0.4437943737789667</v>
       </c>
       <c r="C22">
-        <v>0.1217204044953995</v>
+        <v>0.05510696876271407</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>-0.2530853067428152</v>
+        <v>-0.1536014751580068</v>
       </c>
       <c r="B23">
-        <v>0.5708394132854387</v>
+        <v>0.6064834964742465</v>
       </c>
       <c r="C23">
-        <v>-0.005743619770430701</v>
+        <v>-0.04310981374602414</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>-0.6363662716085849</v>
+        <v>-0.6531081737721952</v>
       </c>
       <c r="B24">
-        <v>0.6177408740261572</v>
+        <v>0.6280780161709874</v>
       </c>
       <c r="C24">
-        <v>0.5760566681065191</v>
+        <v>0.5404564029660944</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>-0.03147753652238609</v>
+        <v>-0.01490676811915075</v>
       </c>
       <c r="B25">
-        <v>0.2223950214805345</v>
+        <v>0.2013559486237219</v>
       </c>
       <c r="C25">
-        <v>0.6251710922795428</v>
+        <v>0.5925966832659125</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>-0.09128222397588515</v>
+        <v>-0.1733854109055908</v>
       </c>
       <c r="B26">
-        <v>0.8788847105094458</v>
+        <v>0.9066705534497773</v>
       </c>
       <c r="C26">
-        <v>0.774892547630316</v>
+        <v>0.6978481261104588</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>-0.5695444589020763</v>
+        <v>-0.6283958611706181</v>
       </c>
       <c r="B27">
-        <v>0.7147972770919849</v>
+        <v>0.7376179633549291</v>
       </c>
       <c r="C27">
-        <v>0.3756753903231456</v>
+        <v>0.2969647326586695</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>-0.5615096379210939</v>
+        <v>-0.6246322867534047</v>
       </c>
       <c r="B28">
-        <v>0.658271358008398</v>
+        <v>0.6857644759033374</v>
       </c>
       <c r="C28">
-        <v>0.3904935532568799</v>
+        <v>0.3178794472153024</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>-0.7399574366843616</v>
+        <v>-0.7385508898776346</v>
       </c>
       <c r="B29">
-        <v>0.8369521956206731</v>
+        <v>0.833714801861743</v>
       </c>
       <c r="C29">
-        <v>0.2249889466687259</v>
+        <v>0.1980712815722692</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>-0.679827266121282</v>
+        <v>-0.705436682812335</v>
       </c>
       <c r="B30">
-        <v>0.8113940606701577</v>
+        <v>0.7981270549074991</v>
       </c>
       <c r="C30">
-        <v>0.1478599866132671</v>
+        <v>0.1267803175757406</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>-0.6922482684755865</v>
+        <v>-0.7435715540779758</v>
       </c>
       <c r="B31">
-        <v>0.6898187211438583</v>
+        <v>0.7203331522839388</v>
       </c>
       <c r="C31">
-        <v>0.4595454888648986</v>
+        <v>0.440857349372876</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>-0.7387528952899649</v>
+        <v>-0.7744454707313887</v>
       </c>
       <c r="B32">
-        <v>0.8568355751022748</v>
+        <v>0.8710142086223134</v>
       </c>
       <c r="C32">
-        <v>-0.179750361029299</v>
+        <v>-0.1925029091990465</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>-0.6585647511331055</v>
+        <v>-0.6962919326069713</v>
       </c>
       <c r="B33">
-        <v>0.883129289731737</v>
+        <v>0.894325526947357</v>
       </c>
       <c r="C33">
-        <v>-0.1168926093371536</v>
+        <v>-0.1305584370604312</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>-0.7486288243928927</v>
+        <v>-0.7831982194319124</v>
       </c>
       <c r="B34">
-        <v>0.8119502409128262</v>
+        <v>0.8298187798660236</v>
       </c>
       <c r="C34">
-        <v>-0.1656482429054716</v>
+        <v>-0.1808760746570674</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>-0.7532793384305542</v>
+        <v>-0.7716517227160525</v>
       </c>
       <c r="B35">
-        <v>0.7287396457210078</v>
+        <v>0.7503568810992504</v>
       </c>
       <c r="C35">
-        <v>0.04360188476735692</v>
+        <v>0.1287146058658457</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>-0.5022612824269564</v>
+        <v>-0.3841886549824579</v>
       </c>
       <c r="B36">
-        <v>0.6744614639294306</v>
+        <v>0.6621193628742622</v>
       </c>
       <c r="C36">
-        <v>0.5374607874518548</v>
+        <v>0.6714727733772617</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>-0.6685005172666334</v>
+        <v>-0.7175088212832967</v>
       </c>
       <c r="B37">
-        <v>0.8657228092017116</v>
+        <v>0.8867479528525146</v>
       </c>
       <c r="C37">
-        <v>0.1177044339314563</v>
+        <v>0.07382900977852805</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>-0.5820203467146888</v>
+        <v>-0.6330258508217508</v>
       </c>
       <c r="B38">
-        <v>1.066501598141515</v>
+        <v>1.073005202195424</v>
       </c>
       <c r="C38">
-        <v>0.2093780735574665</v>
+        <v>0.140947209629951</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>-0.6470995176495029</v>
+        <v>-0.6965687169290543</v>
       </c>
       <c r="B39">
-        <v>1.013287928736956</v>
+        <v>1.020626686955323</v>
       </c>
       <c r="C39">
-        <v>0.2241346454426401</v>
+        <v>0.1711964752668897</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>-0.3701290992545441</v>
+        <v>-0.3307582259823009</v>
       </c>
       <c r="B40">
-        <v>0.8925569789061137</v>
+        <v>0.8981850125328987</v>
       </c>
       <c r="C40">
-        <v>0.7765385291315079</v>
+        <v>0.789402510837698</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>-0.4801334551522983</v>
+        <v>-0.4440518673549514</v>
       </c>
       <c r="B41">
-        <v>0.9759227742913823</v>
+        <v>0.9849625027496675</v>
       </c>
       <c r="C41">
-        <v>0.4606559060206121</v>
+        <v>0.4410296192706526</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>-0.7006733104565214</v>
+        <v>-0.6920320135159228</v>
       </c>
       <c r="B42">
-        <v>0.8928942740790274</v>
+        <v>0.9117809778235608</v>
       </c>
       <c r="C42">
-        <v>0.07193258949367021</v>
+        <v>0.07543644784753266</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>-0.7588283293021155</v>
+        <v>-0.8017315247466548</v>
       </c>
       <c r="B43">
-        <v>0.8266366206861557</v>
+        <v>0.8412103770793461</v>
       </c>
       <c r="C43">
-        <v>0.009736711833102258</v>
+        <v>-0.02589485651626741</v>
       </c>
     </row>
   </sheetData>
@@ -5756,464 +5756,464 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>1.309654962169896</v>
+        <v>1.171558761223634</v>
       </c>
       <c r="B2">
-        <v>0.5355257426567247</v>
+        <v>0.5400352762429191</v>
       </c>
       <c r="C2">
-        <v>-0.4142097303776342</v>
+        <v>0.4855260544974073</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>1.440410854203479</v>
+        <v>1.368397953519475</v>
       </c>
       <c r="B3">
-        <v>1.845387668043817</v>
+        <v>1.784572442803655</v>
       </c>
       <c r="C3">
-        <v>-1.148155196600837</v>
+        <v>1.151044055997442</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>0.5047205462776637</v>
+        <v>0.3894717995011523</v>
       </c>
       <c r="B4">
-        <v>1.600506970292063</v>
+        <v>1.576039295694737</v>
       </c>
       <c r="C4">
-        <v>-0.5651145800303913</v>
+        <v>0.6210242205745153</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>0.3525847655543903</v>
+        <v>1.14649565990562</v>
       </c>
       <c r="B5">
-        <v>0.2624895286422799</v>
+        <v>0.06885368351894476</v>
       </c>
       <c r="C5">
-        <v>-1.157314372917478</v>
+        <v>1.35877460479699</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>1.259798524135154</v>
+        <v>2.167160536921395</v>
       </c>
       <c r="B6">
-        <v>2.242277601928021</v>
+        <v>2.344593436115018</v>
       </c>
       <c r="C6">
-        <v>0.03369686760866822</v>
+        <v>-0.1901782478789945</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>-0.3012117385229775</v>
+        <v>-0.4116921388011041</v>
       </c>
       <c r="B7">
-        <v>0.8191905966024426</v>
+        <v>0.8464951027186235</v>
       </c>
       <c r="C7">
-        <v>-1.271334224226193</v>
+        <v>1.262536741124699</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>-0.07736576501182729</v>
+        <v>-0.1938358422532228</v>
       </c>
       <c r="B8">
-        <v>1.354251262829605</v>
+        <v>1.364565344542545</v>
       </c>
       <c r="C8">
-        <v>-0.004671819280015485</v>
+        <v>0.03152186557470576</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>0.421844527542292</v>
+        <v>0.1151103456787713</v>
       </c>
       <c r="B9">
-        <v>0.5701415149325065</v>
+        <v>0.5960864223577452</v>
       </c>
       <c r="C9">
-        <v>-0.4533752790968151</v>
+        <v>0.4703057226270526</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>-0.4401020370317363</v>
+        <v>-0.633430095596474</v>
       </c>
       <c r="B10">
-        <v>1.444261082822194</v>
+        <v>1.449200477258993</v>
       </c>
       <c r="C10">
-        <v>0.8228181529963764</v>
+        <v>-0.7668253852397605</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>-1.32551775504092</v>
+        <v>-1.30756892980356</v>
       </c>
       <c r="B11">
-        <v>0.8647043476369503</v>
+        <v>0.8747270442536161</v>
       </c>
       <c r="C11">
-        <v>0.1823622825018309</v>
+        <v>-0.2565982019673108</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>0.1767326128016768</v>
+        <v>-0.1726500140227519</v>
       </c>
       <c r="B12">
-        <v>-1.111925384145533</v>
+        <v>-1.038746432907815</v>
       </c>
       <c r="C12">
-        <v>0.6962114846637506</v>
+        <v>-0.6279328817784448</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>-1.287213751112884</v>
+        <v>-1.494928104302157</v>
       </c>
       <c r="B13">
-        <v>0.5820473871653061</v>
+        <v>0.6257044350719241</v>
       </c>
       <c r="C13">
-        <v>-0.8619911694787076</v>
+        <v>0.8664401809159604</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>-0.8443442685146908</v>
+        <v>-1.035690628013886</v>
       </c>
       <c r="B14">
-        <v>0.1917929815052041</v>
+        <v>0.2546625048007584</v>
       </c>
       <c r="C14">
-        <v>-1.254475203884919</v>
+        <v>1.267912243794447</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>-0.4544902151011054</v>
+        <v>-0.7324136232549101</v>
       </c>
       <c r="B15">
-        <v>0.5687572829905698</v>
+        <v>0.5679370639981024</v>
       </c>
       <c r="C15">
-        <v>0.3406826323777189</v>
+        <v>-0.3019534941376139</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>-0.4082326077784183</v>
+        <v>0.377074844566256</v>
       </c>
       <c r="B16">
-        <v>0.4806718405140712</v>
+        <v>0.3663664000365112</v>
       </c>
       <c r="C16">
-        <v>0.4646481892842576</v>
+        <v>-0.6040284284854275</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>-0.7343727431165308</v>
+        <v>-0.1880806813580035</v>
       </c>
       <c r="B17">
-        <v>0.660230222318555</v>
+        <v>0.5563867657537286</v>
       </c>
       <c r="C17">
-        <v>-0.0343418840171536</v>
+        <v>-0.03844529798934838</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>1.076728298452199</v>
+        <v>0.7754823432062629</v>
       </c>
       <c r="B18">
-        <v>0.07421097190880405</v>
+        <v>0.09579917555128276</v>
       </c>
       <c r="C18">
-        <v>0.1053162659174124</v>
+        <v>0.007473946037813836</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>1.363079914504157</v>
+        <v>1.128277761115633</v>
       </c>
       <c r="B19">
-        <v>1.097877896646716</v>
+        <v>1.076144631320655</v>
       </c>
       <c r="C19">
-        <v>1.880444095832381</v>
+        <v>-1.794029226833331</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>1.291650321123523</v>
+        <v>1.089730592808004</v>
       </c>
       <c r="B20">
-        <v>1.051459806489587</v>
+        <v>1.03770988108893</v>
       </c>
       <c r="C20">
-        <v>0.5573369604031645</v>
+        <v>-0.4587915097072418</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>1.999134018963381</v>
+        <v>1.935223428267585</v>
       </c>
       <c r="B21">
-        <v>0.8822641914447735</v>
+        <v>0.9079839219952949</v>
       </c>
       <c r="C21">
-        <v>2.339475874935093</v>
+        <v>-2.234423210075456</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>-1.062940956305291</v>
+        <v>-0.4936794106127674</v>
       </c>
       <c r="B22">
-        <v>-0.194864865703613</v>
+        <v>-0.3021459092771722</v>
       </c>
       <c r="C22">
-        <v>0.7007887657698336</v>
+        <v>-1.096827366582234</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>0.8731704663720333</v>
+        <v>0.5541113939122209</v>
       </c>
       <c r="B23">
-        <v>-0.6258588536762467</v>
+        <v>-0.5626277816109087</v>
       </c>
       <c r="C23">
-        <v>1.450903286646003</v>
+        <v>-1.37774659532292</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>2.251859456327717</v>
+        <v>2.091338471926102</v>
       </c>
       <c r="B24">
-        <v>-1.297374264614728</v>
+        <v>-1.151920655961102</v>
       </c>
       <c r="C24">
-        <v>2.3207467551859</v>
+        <v>-2.248746902919928</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>0.40476331512008</v>
+        <v>0.1677958214398342</v>
       </c>
       <c r="B25">
-        <v>-0.8183182445306728</v>
+        <v>-0.7187218699067024</v>
       </c>
       <c r="C25">
-        <v>1.317592458212874</v>
+        <v>-1.241697960645613</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>-0.0259102810826034</v>
+        <v>-0.2072823998320349</v>
       </c>
       <c r="B26">
-        <v>0.4487411590620121</v>
+        <v>0.4971020450463714</v>
       </c>
       <c r="C26">
-        <v>-0.5491759790467057</v>
+        <v>0.5303739608697567</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>-1.329531349579387</v>
+        <v>-0.8605817275065831</v>
       </c>
       <c r="B27">
-        <v>-0.5592177615917709</v>
+        <v>-0.8195673419115735</v>
       </c>
       <c r="C27">
-        <v>0.03515771877264956</v>
+        <v>-0.2075825656796914</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>-1.247545163337529</v>
+        <v>-0.759564546416525</v>
       </c>
       <c r="B28">
-        <v>-0.7033913917223233</v>
+        <v>-0.9665620274625784</v>
       </c>
       <c r="C28">
-        <v>-1.044613962785476</v>
+        <v>1.169522190379211</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>0.355365165482274</v>
+        <v>0.1878900861901996</v>
       </c>
       <c r="B29">
-        <v>-0.5735450719650177</v>
+        <v>-0.4557119162892684</v>
       </c>
       <c r="C29">
-        <v>1.169694668450965</v>
+        <v>-1.081786327451572</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>-0.9627432738881706</v>
+        <v>-1.188048312635723</v>
       </c>
       <c r="B30">
-        <v>-0.8268572720358816</v>
+        <v>-0.7286483545382472</v>
       </c>
       <c r="C30">
-        <v>-0.9383308909062821</v>
+        <v>0.9517683963718336</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>-0.3218508098076114</v>
+        <v>-0.5942213939818111</v>
       </c>
       <c r="B31">
-        <v>-1.111590802138212</v>
+        <v>-1.005987106710179</v>
       </c>
       <c r="C31">
-        <v>-1.141547309433146</v>
+        <v>1.158667264399048</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>-1.698077120452424</v>
+        <v>-1.899358610786935</v>
       </c>
       <c r="B32">
-        <v>0.1268056351434606</v>
+        <v>0.2013294532833539</v>
       </c>
       <c r="C32">
-        <v>-0.9389470486612257</v>
+        <v>0.9397698930375321</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>-0.1729383109934749</v>
+        <v>0.7122736798076553</v>
       </c>
       <c r="B33">
-        <v>-1.005415573125314</v>
+        <v>-1.277468277239536</v>
       </c>
       <c r="C33">
-        <v>0.3179466712938654</v>
+        <v>-0.4570179317604626</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>-0.4492678474292123</v>
+        <v>0.2950631542483517</v>
       </c>
       <c r="B34">
-        <v>-1.005126536865812</v>
+        <v>-1.273422948749192</v>
       </c>
       <c r="C34">
-        <v>0.4689812399928664</v>
+        <v>-0.6422413121343751</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>-0.4071573448366399</v>
+        <v>-0.5785770287462758</v>
       </c>
       <c r="B35">
-        <v>0.1926071984916506</v>
+        <v>0.2662429870188411</v>
       </c>
       <c r="C35">
-        <v>0.2508027885937249</v>
+        <v>-0.2279554855349427</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>0.2967013698011614</v>
+        <v>-0.02805137561171869</v>
       </c>
       <c r="B36">
-        <v>-1.628029461285032</v>
+        <v>-1.511329362031048</v>
       </c>
       <c r="C36">
-        <v>-0.1162376297381594</v>
+        <v>0.1319260470184196</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>0.2305411281783832</v>
+        <v>-0.1292670122735463</v>
       </c>
       <c r="B37">
-        <v>-1.723759998877065</v>
+        <v>-1.606258316714294</v>
       </c>
       <c r="C37">
-        <v>-0.6578013528223926</v>
+        <v>0.6737065474386553</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>-1.278681855288969</v>
+        <v>-1.605168021894256</v>
       </c>
       <c r="B38">
-        <v>-0.4006467227409956</v>
+        <v>-0.3058220512594055</v>
       </c>
       <c r="C38">
-        <v>0.289970182477665</v>
+        <v>-0.2746292176203612</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>-1.274520392827435</v>
+        <v>-0.7177332957361328</v>
       </c>
       <c r="B39">
-        <v>-0.8623321891172727</v>
+        <v>-1.122008583295042</v>
       </c>
       <c r="C39">
-        <v>-0.4304527527535907</v>
+        <v>0.2654750583230472</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>-0.02387442841788872</v>
+        <v>-0.3438959314072929</v>
       </c>
       <c r="B40">
-        <v>-0.9731358697213982</v>
+        <v>-0.8751462991818355</v>
       </c>
       <c r="C40">
-        <v>0.322389564016947</v>
+        <v>-0.3269129017427891</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>1.589343307356997</v>
+        <v>1.354283483752614</v>
       </c>
       <c r="B41">
-        <v>-1.777268043081636</v>
+        <v>-1.662491340453748</v>
       </c>
       <c r="C41">
-        <v>-1.814177809290639</v>
+        <v>1.83595609801949</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>0.02768231629170163</v>
+        <v>-0.1603949662922471</v>
       </c>
       <c r="B42">
-        <v>-0.7358403064580756</v>
+        <v>-0.62443428029766</v>
       </c>
       <c r="C42">
-        <v>0.5896577429073721</v>
+        <v>-0.5433197668405311</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>-1.097875855180333</v>
+        <v>-1.29062602685088</v>
       </c>
       <c r="B43">
-        <v>0.0382957233292838</v>
+        <v>0.1104830653247556</v>
       </c>
       <c r="C43">
-        <v>-1.86135645349356</v>
+        <v>1.819945126530324</v>
       </c>
     </row>
   </sheetData>
